--- a/Documentation/ArmBoard_Bom.xlsx
+++ b/Documentation/ArmBoard_Bom.xlsx
@@ -1,13 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanNa\OneDrive\Documents\GitHub\ArmBoard_Hardware\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_D0CC075590DEFDE97413709CF856B0C54145FFA6" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MRDT BOM Template.csv" sheetId="1" r:id="rId3"/>
+    <sheet name="MRDT BOM Template.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId4" roundtripDataSignature="AMtx7mjdNPeZD0K5FXjrkA8OFNvW/8N+9A=="/>
     </ext>
@@ -540,62 +555,68 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="11.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF454545"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="Verdana"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF34964E"/>
       <name val="Verdana"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF454545"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF444444"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
@@ -605,7 +626,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -615,95 +636,383 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:P1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="63.0"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,9 +1053,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -755,7 +1064,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>14</v>
@@ -770,26 +1079,27 @@
         <v>17</v>
       </c>
       <c r="I2" s="7">
-        <v>0.826</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="J2" s="8">
-        <f t="shared" ref="J2:J39" si="1">D2*I2</f>
-        <v>2.478</v>
+        <f t="shared" ref="J2:J39" si="0">D2*I2</f>
+        <v>2.4779999999999998</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M3" si="2">D2</f>
+        <f t="shared" ref="M2:M3" si="1">D2</f>
         <v>3</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="P2" s="20"/>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
@@ -798,42 +1108,43 @@
         <v>21</v>
       </c>
       <c r="D3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="7">
         <v>4.57</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.57</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="M3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="21">
         <f>SUM(I2:I1001)</f>
-        <v>36.404</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>36.404000000000003</v>
+      </c>
+      <c r="P3" s="20"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>26</v>
@@ -842,7 +1153,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>22</v>
@@ -860,19 +1171,21 @@
         <v>4.57</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.57</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>29</v>
       </c>
       <c r="M4" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f t="shared" ref="A5:A11" si="3">A4+1</f>
+        <f t="shared" ref="A5:A11" si="2">A4+1</f>
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -882,7 +1195,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>32</v>
@@ -900,20 +1213,20 @@
         <v>1.99</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.96</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>34</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M11" si="4">D5</f>
+        <f t="shared" ref="M5:M11" si="3">D5</f>
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -923,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>36</v>
@@ -938,146 +1251,146 @@
         <v>17</v>
       </c>
       <c r="I6" s="7">
-        <v>0.826</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="1"/>
-        <v>0.826</v>
+        <f t="shared" si="0"/>
+        <v>0.82599999999999996</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="M6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.44</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="0"/>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="J9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0.44</v>
-      </c>
-      <c r="J7" s="8">
-        <f t="shared" si="1"/>
-        <v>0.88</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0.826</v>
-      </c>
-      <c r="J8" s="8">
-        <f t="shared" si="1"/>
-        <v>0.826</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="J9" s="8">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1087,7 +1400,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>54</v>
@@ -1105,20 +1418,20 @@
         <v>0.745</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.745</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>57</v>
       </c>
       <c r="M10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1128,10 +1441,10 @@
         <v>47</v>
       </c>
       <c r="D11" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="E11" s="1">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>59</v>
@@ -1143,23 +1456,23 @@
         <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>61</v>
       </c>
       <c r="M11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>62</v>
@@ -1168,7 +1481,7 @@
         <v>63</v>
       </c>
       <c r="D12" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>64</v>
@@ -1186,19 +1499,19 @@
         <v>0.62</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>67</v>
       </c>
       <c r="M12" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>68</v>
@@ -1207,7 +1520,7 @@
         <v>63</v>
       </c>
       <c r="D13" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>64</v>
@@ -1225,19 +1538,19 @@
         <v>1.03</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.06</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>71</v>
       </c>
       <c r="M13" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>72</v>
@@ -1246,7 +1559,7 @@
         <v>63</v>
       </c>
       <c r="D14" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>64</v>
@@ -1261,22 +1574,22 @@
         <v>17</v>
       </c>
       <c r="I14" s="7">
-        <v>0.243</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" si="1"/>
-        <v>0.729</v>
+        <f t="shared" si="0"/>
+        <v>0.72899999999999998</v>
       </c>
       <c r="K14" s="9" t="s">
         <v>75</v>
       </c>
       <c r="M14" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>76</v>
@@ -1285,7 +1598,7 @@
         <v>63</v>
       </c>
       <c r="D15" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>64</v>
@@ -1300,22 +1613,22 @@
         <v>17</v>
       </c>
       <c r="I15" s="7">
-        <v>0.117</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="1"/>
-        <v>0.585</v>
+        <f t="shared" si="0"/>
+        <v>0.58500000000000008</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>79</v>
       </c>
       <c r="M15" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>80</v>
@@ -1324,7 +1637,7 @@
         <v>63</v>
       </c>
       <c r="D16" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>64</v>
@@ -1342,19 +1655,19 @@
         <v>0.107</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.819</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>83</v>
       </c>
       <c r="M16" s="1">
-        <v>17.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
-        <f t="shared" ref="A17:A39" si="5">A16+1</f>
+        <f t="shared" ref="A17:A39" si="4">A16+1</f>
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1364,15 +1677,15 @@
         <v>85</v>
       </c>
       <c r="D17" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="14" t="s">
         <v>88</v>
       </c>
       <c r="H17" s="6" t="s">
@@ -1382,20 +1695,20 @@
         <v>0.59</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.18</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>90</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:M39" si="6">D17</f>
+        <f t="shared" ref="M17:M39" si="5">D17</f>
         <v>2</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1405,7 +1718,7 @@
         <v>92</v>
       </c>
       <c r="D18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>93</v>
@@ -1423,20 +1736,20 @@
         <v>1.83</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.66</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>96</v>
       </c>
       <c r="M18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1446,7 +1759,7 @@
         <v>98</v>
       </c>
       <c r="D19" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>99</v>
@@ -1464,20 +1777,20 @@
         <v>0.09</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="1"/>
-        <v>0.81</v>
+        <f t="shared" si="0"/>
+        <v>0.80999999999999994</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>102</v>
       </c>
       <c r="M19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1487,15 +1800,15 @@
         <v>104</v>
       </c>
       <c r="D20" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="13" t="s">
         <v>107</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -1505,20 +1818,20 @@
         <v>7.91</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.91</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>108</v>
       </c>
       <c r="M20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1528,7 +1841,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>110</v>
@@ -1543,23 +1856,23 @@
         <v>17</v>
       </c>
       <c r="I21" s="7">
-        <v>0.826</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="1"/>
-        <v>0.826</v>
+        <f t="shared" si="0"/>
+        <v>0.82599999999999996</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>18</v>
       </c>
       <c r="M21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -1569,7 +1882,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>112</v>
@@ -1587,20 +1900,20 @@
         <v>0.745</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="1"/>
-        <v>2.235</v>
+        <f t="shared" si="0"/>
+        <v>2.2349999999999999</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>57</v>
       </c>
       <c r="M22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1610,7 +1923,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>114</v>
@@ -1625,23 +1938,23 @@
         <v>17</v>
       </c>
       <c r="I23" s="7">
-        <v>0.826</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="1"/>
-        <v>0.826</v>
+        <f t="shared" si="0"/>
+        <v>0.82599999999999996</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>18</v>
       </c>
       <c r="M23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1651,7 +1964,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>116</v>
@@ -1666,23 +1979,23 @@
         <v>17</v>
       </c>
       <c r="I24" s="7">
-        <v>0.826</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" si="1"/>
-        <v>0.826</v>
+        <f t="shared" si="0"/>
+        <v>0.82599999999999996</v>
       </c>
       <c r="K24" s="9" t="s">
         <v>18</v>
       </c>
       <c r="M24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1692,7 +2005,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>118</v>
@@ -1707,23 +2020,23 @@
         <v>17</v>
       </c>
       <c r="I25" s="7">
-        <v>0.826</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="1"/>
-        <v>0.826</v>
+        <f t="shared" si="0"/>
+        <v>0.82599999999999996</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>18</v>
       </c>
       <c r="M25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1733,7 +2046,7 @@
         <v>53</v>
       </c>
       <c r="D26" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>120</v>
@@ -1751,20 +2064,20 @@
         <v>0.745</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.745</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>57</v>
       </c>
       <c r="M26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1774,7 +2087,7 @@
         <v>53</v>
       </c>
       <c r="D27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>122</v>
@@ -1792,20 +2105,20 @@
         <v>0.745</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.745</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>57</v>
       </c>
       <c r="M27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1815,7 +2128,7 @@
         <v>53</v>
       </c>
       <c r="D28" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>124</v>
@@ -1833,20 +2146,20 @@
         <v>0.745</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.745</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>57</v>
       </c>
       <c r="M28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1856,38 +2169,38 @@
         <v>126</v>
       </c>
       <c r="D29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="17" t="s">
+      <c r="G29" s="15" t="s">
         <v>128</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>89</v>
       </c>
       <c r="I29" s="7">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="1"/>
-        <v>1.68</v>
+        <f t="shared" si="0"/>
+        <v>1.6800000000000002</v>
       </c>
       <c r="K29" s="9" t="s">
         <v>129</v>
       </c>
       <c r="M29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1897,15 +2210,15 @@
         <v>131</v>
       </c>
       <c r="D30" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="14" t="s">
         <v>88</v>
       </c>
       <c r="H30" s="6" t="s">
@@ -1915,20 +2228,20 @@
         <v>0.59</v>
       </c>
       <c r="J30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.31</v>
       </c>
       <c r="K30" s="9" t="s">
         <v>90</v>
       </c>
       <c r="M30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1938,15 +2251,15 @@
         <v>98</v>
       </c>
       <c r="D31" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="13" t="s">
         <v>135</v>
       </c>
       <c r="H31" s="6" t="s">
@@ -1956,20 +2269,20 @@
         <v>0.35</v>
       </c>
       <c r="J31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
       <c r="K31" s="9" t="s">
         <v>136</v>
       </c>
       <c r="M31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1979,7 +2292,7 @@
         <v>138</v>
       </c>
       <c r="D32" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>139</v>
@@ -1997,20 +2310,20 @@
         <v>0.61</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.22</v>
       </c>
       <c r="K32" s="9" t="s">
         <v>142</v>
       </c>
       <c r="M32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2020,15 +2333,15 @@
         <v>98</v>
       </c>
       <c r="D33" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="13" t="s">
         <v>146</v>
       </c>
       <c r="H33" s="6" t="s">
@@ -2038,20 +2351,20 @@
         <v>0.11</v>
       </c>
       <c r="J33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.11</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>147</v>
       </c>
       <c r="M33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2061,38 +2374,38 @@
         <v>149</v>
       </c>
       <c r="D34" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="13" t="s">
         <v>152</v>
       </c>
       <c r="H34" s="6" t="s">
         <v>42</v>
       </c>
       <c r="I34" s="7">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J34" s="8">
-        <f t="shared" si="1"/>
-        <v>0.14</v>
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>153</v>
       </c>
       <c r="M34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -2102,7 +2415,7 @@
         <v>47</v>
       </c>
       <c r="D35" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>155</v>
@@ -2120,20 +2433,20 @@
         <v>0.12</v>
       </c>
       <c r="J35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>158</v>
       </c>
       <c r="M35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -2143,10 +2456,10 @@
         <v>47</v>
       </c>
       <c r="D36" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>160</v>
@@ -2158,23 +2471,23 @@
         <v>17</v>
       </c>
       <c r="I36" s="7">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" si="1"/>
-        <v>0.003</v>
+        <f t="shared" si="0"/>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>162</v>
       </c>
       <c r="M36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2184,10 +2497,10 @@
         <v>47</v>
       </c>
       <c r="D37" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E37" s="1">
-        <v>500.0</v>
+        <v>500</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>164</v>
@@ -2199,23 +2512,23 @@
         <v>17</v>
       </c>
       <c r="I37" s="7">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J37" s="8">
-        <f t="shared" si="1"/>
-        <v>0.036</v>
+        <f t="shared" si="0"/>
+        <v>3.6000000000000004E-2</v>
       </c>
       <c r="K37" s="9" t="s">
         <v>166</v>
       </c>
       <c r="M37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2225,15 +2538,15 @@
         <v>47</v>
       </c>
       <c r="D38" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G38" s="18" t="s">
+      <c r="G38" s="16" t="s">
         <v>50</v>
       </c>
       <c r="H38" s="6" t="s">
@@ -2243,20 +2556,20 @@
         <v>0.1</v>
       </c>
       <c r="J38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>51</v>
       </c>
       <c r="M38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -2266,7 +2579,7 @@
         <v>47</v>
       </c>
       <c r="D39" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>169</v>
@@ -2281,3869 +2594,3869 @@
         <v>17</v>
       </c>
       <c r="I39" s="7">
-        <v>0.101</v>
+        <v>0.10100000000000001</v>
       </c>
       <c r="J39" s="8">
-        <f t="shared" si="1"/>
-        <v>0.303</v>
+        <f t="shared" si="0"/>
+        <v>0.30300000000000005</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>172</v>
       </c>
       <c r="M39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G40" s="5"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
     </row>
-    <row r="41">
-      <c r="F41" s="19"/>
+    <row r="41" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="F41" s="17"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
     </row>
-    <row r="42">
-      <c r="F42" s="18"/>
+    <row r="42" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="F42" s="16"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
     </row>
-    <row r="43">
-      <c r="F43" s="20"/>
+    <row r="43" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="F43" s="18"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
     </row>
-    <row r="49">
+    <row r="49" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
     </row>
-    <row r="50">
+    <row r="50" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
     </row>
-    <row r="51">
+    <row r="51" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52">
+    <row r="52" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
     </row>
-    <row r="53">
+    <row r="53" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
     </row>
-    <row r="54">
+    <row r="54" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
     </row>
-    <row r="55">
+    <row r="55" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
     </row>
-    <row r="56">
+    <row r="56" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
     </row>
-    <row r="57">
+    <row r="57" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
     </row>
-    <row r="58">
+    <row r="58" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
     </row>
-    <row r="59">
+    <row r="59" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
     </row>
-    <row r="60">
+    <row r="60" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
     </row>
-    <row r="61">
+    <row r="61" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
     </row>
-    <row r="62">
+    <row r="62" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
     </row>
-    <row r="63">
+    <row r="63" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
     </row>
-    <row r="64">
+    <row r="64" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
     </row>
-    <row r="65">
+    <row r="65" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
     </row>
-    <row r="66">
+    <row r="66" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
     </row>
-    <row r="67">
+    <row r="67" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
     </row>
-    <row r="68">
+    <row r="68" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
     </row>
-    <row r="69">
+    <row r="69" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
     </row>
-    <row r="70">
+    <row r="70" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
     </row>
-    <row r="71">
+    <row r="71" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
     </row>
-    <row r="72">
+    <row r="72" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
     </row>
-    <row r="73">
+    <row r="73" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
     </row>
-    <row r="74">
+    <row r="74" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
     </row>
-    <row r="75">
+    <row r="75" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
     </row>
-    <row r="76">
+    <row r="76" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
     </row>
-    <row r="77">
+    <row r="77" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
     </row>
-    <row r="78">
+    <row r="78" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
     </row>
-    <row r="79">
+    <row r="79" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
     </row>
-    <row r="80">
+    <row r="80" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
     </row>
-    <row r="81">
+    <row r="81" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
     </row>
-    <row r="82">
+    <row r="82" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
     </row>
-    <row r="83">
+    <row r="83" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
     </row>
-    <row r="84">
+    <row r="84" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
     </row>
-    <row r="85">
+    <row r="85" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
     </row>
-    <row r="86">
+    <row r="86" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
     </row>
-    <row r="87">
+    <row r="87" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
     </row>
-    <row r="88">
+    <row r="88" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
     </row>
-    <row r="89">
+    <row r="89" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
     </row>
-    <row r="90">
+    <row r="90" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
     </row>
-    <row r="91">
+    <row r="91" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
     </row>
-    <row r="92">
+    <row r="92" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
     </row>
-    <row r="93">
+    <row r="93" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
     </row>
-    <row r="94">
+    <row r="94" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
     </row>
-    <row r="95">
+    <row r="95" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
     </row>
-    <row r="96">
+    <row r="96" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
     </row>
-    <row r="97">
+    <row r="97" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
     </row>
-    <row r="98">
+    <row r="98" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
     </row>
-    <row r="99">
+    <row r="99" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
     </row>
-    <row r="100">
+    <row r="100" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
     </row>
-    <row r="101">
+    <row r="101" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
     </row>
-    <row r="102">
+    <row r="102" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
     </row>
-    <row r="103">
+    <row r="103" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
     </row>
-    <row r="104">
+    <row r="104" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
     </row>
-    <row r="105">
+    <row r="105" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
     </row>
-    <row r="106">
+    <row r="106" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
     </row>
-    <row r="107">
+    <row r="107" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
     </row>
-    <row r="108">
+    <row r="108" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
     </row>
-    <row r="109">
+    <row r="109" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
     </row>
-    <row r="110">
+    <row r="110" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
     </row>
-    <row r="111">
+    <row r="111" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
     </row>
-    <row r="112">
+    <row r="112" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
     </row>
-    <row r="113">
+    <row r="113" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
     </row>
-    <row r="114">
+    <row r="114" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
     </row>
-    <row r="115">
+    <row r="115" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
     </row>
-    <row r="116">
+    <row r="116" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
     </row>
-    <row r="117">
+    <row r="117" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
     </row>
-    <row r="118">
+    <row r="118" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
     </row>
-    <row r="119">
+    <row r="119" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
     </row>
-    <row r="120">
+    <row r="120" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
     </row>
-    <row r="121">
+    <row r="121" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
     </row>
-    <row r="122">
+    <row r="122" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
     </row>
-    <row r="123">
+    <row r="123" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
     </row>
-    <row r="124">
+    <row r="124" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
     </row>
-    <row r="125">
+    <row r="125" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
     </row>
-    <row r="126">
+    <row r="126" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
     </row>
-    <row r="127">
+    <row r="127" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
     </row>
-    <row r="128">
+    <row r="128" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
     </row>
-    <row r="129">
+    <row r="129" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I129" s="8"/>
       <c r="J129" s="8"/>
     </row>
-    <row r="130">
+    <row r="130" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I130" s="8"/>
       <c r="J130" s="8"/>
     </row>
-    <row r="131">
+    <row r="131" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I131" s="8"/>
       <c r="J131" s="8"/>
     </row>
-    <row r="132">
+    <row r="132" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
     </row>
-    <row r="133">
+    <row r="133" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
     </row>
-    <row r="134">
+    <row r="134" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
     </row>
-    <row r="135">
+    <row r="135" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
     </row>
-    <row r="136">
+    <row r="136" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
     </row>
-    <row r="137">
+    <row r="137" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
     </row>
-    <row r="138">
+    <row r="138" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
     </row>
-    <row r="139">
+    <row r="139" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
     </row>
-    <row r="140">
+    <row r="140" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
     </row>
-    <row r="141">
+    <row r="141" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
     </row>
-    <row r="142">
+    <row r="142" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
     </row>
-    <row r="143">
+    <row r="143" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
     </row>
-    <row r="144">
+    <row r="144" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I144" s="8"/>
       <c r="J144" s="8"/>
     </row>
-    <row r="145">
+    <row r="145" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I145" s="8"/>
       <c r="J145" s="8"/>
     </row>
-    <row r="146">
+    <row r="146" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I146" s="8"/>
       <c r="J146" s="8"/>
     </row>
-    <row r="147">
+    <row r="147" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I147" s="8"/>
       <c r="J147" s="8"/>
     </row>
-    <row r="148">
+    <row r="148" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I148" s="8"/>
       <c r="J148" s="8"/>
     </row>
-    <row r="149">
+    <row r="149" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I149" s="8"/>
       <c r="J149" s="8"/>
     </row>
-    <row r="150">
+    <row r="150" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I150" s="8"/>
       <c r="J150" s="8"/>
     </row>
-    <row r="151">
+    <row r="151" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I151" s="8"/>
       <c r="J151" s="8"/>
     </row>
-    <row r="152">
+    <row r="152" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I152" s="8"/>
       <c r="J152" s="8"/>
     </row>
-    <row r="153">
+    <row r="153" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I153" s="8"/>
       <c r="J153" s="8"/>
     </row>
-    <row r="154">
+    <row r="154" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I154" s="8"/>
       <c r="J154" s="8"/>
     </row>
-    <row r="155">
+    <row r="155" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I155" s="8"/>
       <c r="J155" s="8"/>
     </row>
-    <row r="156">
+    <row r="156" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I156" s="8"/>
       <c r="J156" s="8"/>
     </row>
-    <row r="157">
+    <row r="157" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I157" s="8"/>
       <c r="J157" s="8"/>
     </row>
-    <row r="158">
+    <row r="158" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I158" s="8"/>
       <c r="J158" s="8"/>
     </row>
-    <row r="159">
+    <row r="159" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I159" s="8"/>
       <c r="J159" s="8"/>
     </row>
-    <row r="160">
+    <row r="160" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I160" s="8"/>
       <c r="J160" s="8"/>
     </row>
-    <row r="161">
+    <row r="161" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I161" s="8"/>
       <c r="J161" s="8"/>
     </row>
-    <row r="162">
+    <row r="162" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I162" s="8"/>
       <c r="J162" s="8"/>
     </row>
-    <row r="163">
+    <row r="163" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I163" s="8"/>
       <c r="J163" s="8"/>
     </row>
-    <row r="164">
+    <row r="164" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I164" s="8"/>
       <c r="J164" s="8"/>
     </row>
-    <row r="165">
+    <row r="165" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I165" s="8"/>
       <c r="J165" s="8"/>
     </row>
-    <row r="166">
+    <row r="166" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I166" s="8"/>
       <c r="J166" s="8"/>
     </row>
-    <row r="167">
+    <row r="167" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I167" s="8"/>
       <c r="J167" s="8"/>
     </row>
-    <row r="168">
+    <row r="168" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I168" s="8"/>
       <c r="J168" s="8"/>
     </row>
-    <row r="169">
+    <row r="169" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I169" s="8"/>
       <c r="J169" s="8"/>
     </row>
-    <row r="170">
+    <row r="170" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I170" s="8"/>
       <c r="J170" s="8"/>
     </row>
-    <row r="171">
+    <row r="171" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I171" s="8"/>
       <c r="J171" s="8"/>
     </row>
-    <row r="172">
+    <row r="172" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I172" s="8"/>
       <c r="J172" s="8"/>
     </row>
-    <row r="173">
+    <row r="173" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I173" s="8"/>
       <c r="J173" s="8"/>
     </row>
-    <row r="174">
+    <row r="174" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I174" s="8"/>
       <c r="J174" s="8"/>
     </row>
-    <row r="175">
+    <row r="175" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I175" s="8"/>
       <c r="J175" s="8"/>
     </row>
-    <row r="176">
+    <row r="176" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I176" s="8"/>
       <c r="J176" s="8"/>
     </row>
-    <row r="177">
+    <row r="177" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I177" s="8"/>
       <c r="J177" s="8"/>
     </row>
-    <row r="178">
+    <row r="178" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I178" s="8"/>
       <c r="J178" s="8"/>
     </row>
-    <row r="179">
+    <row r="179" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I179" s="8"/>
       <c r="J179" s="8"/>
     </row>
-    <row r="180">
+    <row r="180" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I180" s="8"/>
       <c r="J180" s="8"/>
     </row>
-    <row r="181">
+    <row r="181" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I181" s="8"/>
       <c r="J181" s="8"/>
     </row>
-    <row r="182">
+    <row r="182" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I182" s="8"/>
       <c r="J182" s="8"/>
     </row>
-    <row r="183">
+    <row r="183" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I183" s="8"/>
       <c r="J183" s="8"/>
     </row>
-    <row r="184">
+    <row r="184" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I184" s="8"/>
       <c r="J184" s="8"/>
     </row>
-    <row r="185">
+    <row r="185" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I185" s="8"/>
       <c r="J185" s="8"/>
     </row>
-    <row r="186">
+    <row r="186" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I186" s="8"/>
       <c r="J186" s="8"/>
     </row>
-    <row r="187">
+    <row r="187" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I187" s="8"/>
       <c r="J187" s="8"/>
     </row>
-    <row r="188">
+    <row r="188" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I188" s="8"/>
       <c r="J188" s="8"/>
     </row>
-    <row r="189">
+    <row r="189" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I189" s="8"/>
       <c r="J189" s="8"/>
     </row>
-    <row r="190">
+    <row r="190" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I190" s="8"/>
       <c r="J190" s="8"/>
     </row>
-    <row r="191">
+    <row r="191" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I191" s="8"/>
       <c r="J191" s="8"/>
     </row>
-    <row r="192">
+    <row r="192" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I192" s="8"/>
       <c r="J192" s="8"/>
     </row>
-    <row r="193">
+    <row r="193" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I193" s="8"/>
       <c r="J193" s="8"/>
     </row>
-    <row r="194">
+    <row r="194" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I194" s="8"/>
       <c r="J194" s="8"/>
     </row>
-    <row r="195">
+    <row r="195" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I195" s="8"/>
       <c r="J195" s="8"/>
     </row>
-    <row r="196">
+    <row r="196" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I196" s="8"/>
       <c r="J196" s="8"/>
     </row>
-    <row r="197">
+    <row r="197" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I197" s="8"/>
       <c r="J197" s="8"/>
     </row>
-    <row r="198">
+    <row r="198" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I198" s="8"/>
       <c r="J198" s="8"/>
     </row>
-    <row r="199">
+    <row r="199" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I199" s="8"/>
       <c r="J199" s="8"/>
     </row>
-    <row r="200">
+    <row r="200" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I200" s="8"/>
       <c r="J200" s="8"/>
     </row>
-    <row r="201">
+    <row r="201" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I201" s="8"/>
       <c r="J201" s="8"/>
     </row>
-    <row r="202">
+    <row r="202" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I202" s="8"/>
       <c r="J202" s="8"/>
     </row>
-    <row r="203">
+    <row r="203" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I203" s="8"/>
       <c r="J203" s="8"/>
     </row>
-    <row r="204">
+    <row r="204" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I204" s="8"/>
       <c r="J204" s="8"/>
     </row>
-    <row r="205">
+    <row r="205" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I205" s="8"/>
       <c r="J205" s="8"/>
     </row>
-    <row r="206">
+    <row r="206" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I206" s="8"/>
       <c r="J206" s="8"/>
     </row>
-    <row r="207">
+    <row r="207" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I207" s="8"/>
       <c r="J207" s="8"/>
     </row>
-    <row r="208">
+    <row r="208" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I208" s="8"/>
       <c r="J208" s="8"/>
     </row>
-    <row r="209">
+    <row r="209" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I209" s="8"/>
       <c r="J209" s="8"/>
     </row>
-    <row r="210">
+    <row r="210" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I210" s="8"/>
       <c r="J210" s="8"/>
     </row>
-    <row r="211">
+    <row r="211" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I211" s="8"/>
       <c r="J211" s="8"/>
     </row>
-    <row r="212">
+    <row r="212" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I212" s="8"/>
       <c r="J212" s="8"/>
     </row>
-    <row r="213">
+    <row r="213" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I213" s="8"/>
       <c r="J213" s="8"/>
     </row>
-    <row r="214">
+    <row r="214" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I214" s="8"/>
       <c r="J214" s="8"/>
     </row>
-    <row r="215">
+    <row r="215" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I215" s="8"/>
       <c r="J215" s="8"/>
     </row>
-    <row r="216">
+    <row r="216" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I216" s="8"/>
       <c r="J216" s="8"/>
     </row>
-    <row r="217">
+    <row r="217" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I217" s="8"/>
       <c r="J217" s="8"/>
     </row>
-    <row r="218">
+    <row r="218" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I218" s="8"/>
       <c r="J218" s="8"/>
     </row>
-    <row r="219">
+    <row r="219" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I219" s="8"/>
       <c r="J219" s="8"/>
     </row>
-    <row r="220">
+    <row r="220" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I220" s="8"/>
       <c r="J220" s="8"/>
     </row>
-    <row r="221">
+    <row r="221" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I221" s="8"/>
       <c r="J221" s="8"/>
     </row>
-    <row r="222">
+    <row r="222" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I222" s="8"/>
       <c r="J222" s="8"/>
     </row>
-    <row r="223">
+    <row r="223" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I223" s="8"/>
       <c r="J223" s="8"/>
     </row>
-    <row r="224">
+    <row r="224" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I224" s="8"/>
       <c r="J224" s="8"/>
     </row>
-    <row r="225">
+    <row r="225" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I225" s="8"/>
       <c r="J225" s="8"/>
     </row>
-    <row r="226">
+    <row r="226" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I226" s="8"/>
       <c r="J226" s="8"/>
     </row>
-    <row r="227">
+    <row r="227" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I227" s="8"/>
       <c r="J227" s="8"/>
     </row>
-    <row r="228">
+    <row r="228" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I228" s="8"/>
       <c r="J228" s="8"/>
     </row>
-    <row r="229">
+    <row r="229" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I229" s="8"/>
       <c r="J229" s="8"/>
     </row>
-    <row r="230">
+    <row r="230" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I230" s="8"/>
       <c r="J230" s="8"/>
     </row>
-    <row r="231">
+    <row r="231" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I231" s="8"/>
       <c r="J231" s="8"/>
     </row>
-    <row r="232">
+    <row r="232" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I232" s="8"/>
       <c r="J232" s="8"/>
     </row>
-    <row r="233">
+    <row r="233" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I233" s="8"/>
       <c r="J233" s="8"/>
     </row>
-    <row r="234">
+    <row r="234" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I234" s="8"/>
       <c r="J234" s="8"/>
     </row>
-    <row r="235">
+    <row r="235" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I235" s="8"/>
       <c r="J235" s="8"/>
     </row>
-    <row r="236">
+    <row r="236" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I236" s="8"/>
       <c r="J236" s="8"/>
     </row>
-    <row r="237">
+    <row r="237" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I237" s="8"/>
       <c r="J237" s="8"/>
     </row>
-    <row r="238">
+    <row r="238" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I238" s="8"/>
       <c r="J238" s="8"/>
     </row>
-    <row r="239">
+    <row r="239" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I239" s="8"/>
       <c r="J239" s="8"/>
     </row>
-    <row r="240">
+    <row r="240" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I240" s="8"/>
       <c r="J240" s="8"/>
     </row>
-    <row r="241">
+    <row r="241" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I241" s="8"/>
       <c r="J241" s="8"/>
     </row>
-    <row r="242">
+    <row r="242" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I242" s="8"/>
       <c r="J242" s="8"/>
     </row>
-    <row r="243">
+    <row r="243" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I243" s="8"/>
       <c r="J243" s="8"/>
     </row>
-    <row r="244">
+    <row r="244" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I244" s="8"/>
       <c r="J244" s="8"/>
     </row>
-    <row r="245">
+    <row r="245" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I245" s="8"/>
       <c r="J245" s="8"/>
     </row>
-    <row r="246">
+    <row r="246" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I246" s="8"/>
       <c r="J246" s="8"/>
     </row>
-    <row r="247">
+    <row r="247" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I247" s="8"/>
       <c r="J247" s="8"/>
     </row>
-    <row r="248">
+    <row r="248" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I248" s="8"/>
       <c r="J248" s="8"/>
     </row>
-    <row r="249">
+    <row r="249" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I249" s="8"/>
       <c r="J249" s="8"/>
     </row>
-    <row r="250">
+    <row r="250" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I250" s="8"/>
       <c r="J250" s="8"/>
     </row>
-    <row r="251">
+    <row r="251" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I251" s="8"/>
       <c r="J251" s="8"/>
     </row>
-    <row r="252">
+    <row r="252" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I252" s="8"/>
       <c r="J252" s="8"/>
     </row>
-    <row r="253">
+    <row r="253" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I253" s="8"/>
       <c r="J253" s="8"/>
     </row>
-    <row r="254">
+    <row r="254" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I254" s="8"/>
       <c r="J254" s="8"/>
     </row>
-    <row r="255">
+    <row r="255" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I255" s="8"/>
       <c r="J255" s="8"/>
     </row>
-    <row r="256">
+    <row r="256" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I256" s="8"/>
       <c r="J256" s="8"/>
     </row>
-    <row r="257">
+    <row r="257" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I257" s="8"/>
       <c r="J257" s="8"/>
     </row>
-    <row r="258">
+    <row r="258" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I258" s="8"/>
       <c r="J258" s="8"/>
     </row>
-    <row r="259">
+    <row r="259" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I259" s="8"/>
       <c r="J259" s="8"/>
     </row>
-    <row r="260">
+    <row r="260" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I260" s="8"/>
       <c r="J260" s="8"/>
     </row>
-    <row r="261">
+    <row r="261" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I261" s="8"/>
       <c r="J261" s="8"/>
     </row>
-    <row r="262">
+    <row r="262" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I262" s="8"/>
       <c r="J262" s="8"/>
     </row>
-    <row r="263">
+    <row r="263" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I263" s="8"/>
       <c r="J263" s="8"/>
     </row>
-    <row r="264">
+    <row r="264" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I264" s="8"/>
       <c r="J264" s="8"/>
     </row>
-    <row r="265">
+    <row r="265" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I265" s="8"/>
       <c r="J265" s="8"/>
     </row>
-    <row r="266">
+    <row r="266" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I266" s="8"/>
       <c r="J266" s="8"/>
     </row>
-    <row r="267">
+    <row r="267" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I267" s="8"/>
       <c r="J267" s="8"/>
     </row>
-    <row r="268">
+    <row r="268" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I268" s="8"/>
       <c r="J268" s="8"/>
     </row>
-    <row r="269">
+    <row r="269" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I269" s="8"/>
       <c r="J269" s="8"/>
     </row>
-    <row r="270">
+    <row r="270" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I270" s="8"/>
       <c r="J270" s="8"/>
     </row>
-    <row r="271">
+    <row r="271" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I271" s="8"/>
       <c r="J271" s="8"/>
     </row>
-    <row r="272">
+    <row r="272" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I272" s="8"/>
       <c r="J272" s="8"/>
     </row>
-    <row r="273">
+    <row r="273" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I273" s="8"/>
       <c r="J273" s="8"/>
     </row>
-    <row r="274">
+    <row r="274" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I274" s="8"/>
       <c r="J274" s="8"/>
     </row>
-    <row r="275">
+    <row r="275" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I275" s="8"/>
       <c r="J275" s="8"/>
     </row>
-    <row r="276">
+    <row r="276" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I276" s="8"/>
       <c r="J276" s="8"/>
     </row>
-    <row r="277">
+    <row r="277" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I277" s="8"/>
       <c r="J277" s="8"/>
     </row>
-    <row r="278">
+    <row r="278" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I278" s="8"/>
       <c r="J278" s="8"/>
     </row>
-    <row r="279">
+    <row r="279" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I279" s="8"/>
       <c r="J279" s="8"/>
     </row>
-    <row r="280">
+    <row r="280" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I280" s="8"/>
       <c r="J280" s="8"/>
     </row>
-    <row r="281">
+    <row r="281" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I281" s="8"/>
       <c r="J281" s="8"/>
     </row>
-    <row r="282">
+    <row r="282" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I282" s="8"/>
       <c r="J282" s="8"/>
     </row>
-    <row r="283">
+    <row r="283" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I283" s="8"/>
       <c r="J283" s="8"/>
     </row>
-    <row r="284">
+    <row r="284" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I284" s="8"/>
       <c r="J284" s="8"/>
     </row>
-    <row r="285">
+    <row r="285" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I285" s="8"/>
       <c r="J285" s="8"/>
     </row>
-    <row r="286">
+    <row r="286" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I286" s="8"/>
       <c r="J286" s="8"/>
     </row>
-    <row r="287">
+    <row r="287" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I287" s="8"/>
       <c r="J287" s="8"/>
     </row>
-    <row r="288">
+    <row r="288" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I288" s="8"/>
       <c r="J288" s="8"/>
     </row>
-    <row r="289">
+    <row r="289" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I289" s="8"/>
       <c r="J289" s="8"/>
     </row>
-    <row r="290">
+    <row r="290" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I290" s="8"/>
       <c r="J290" s="8"/>
     </row>
-    <row r="291">
+    <row r="291" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I291" s="8"/>
       <c r="J291" s="8"/>
     </row>
-    <row r="292">
+    <row r="292" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I292" s="8"/>
       <c r="J292" s="8"/>
     </row>
-    <row r="293">
+    <row r="293" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I293" s="8"/>
       <c r="J293" s="8"/>
     </row>
-    <row r="294">
+    <row r="294" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I294" s="8"/>
       <c r="J294" s="8"/>
     </row>
-    <row r="295">
+    <row r="295" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I295" s="8"/>
       <c r="J295" s="8"/>
     </row>
-    <row r="296">
+    <row r="296" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I296" s="8"/>
       <c r="J296" s="8"/>
     </row>
-    <row r="297">
+    <row r="297" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I297" s="8"/>
       <c r="J297" s="8"/>
     </row>
-    <row r="298">
+    <row r="298" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I298" s="8"/>
       <c r="J298" s="8"/>
     </row>
-    <row r="299">
+    <row r="299" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I299" s="8"/>
       <c r="J299" s="8"/>
     </row>
-    <row r="300">
+    <row r="300" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I300" s="8"/>
       <c r="J300" s="8"/>
     </row>
-    <row r="301">
+    <row r="301" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I301" s="8"/>
       <c r="J301" s="8"/>
     </row>
-    <row r="302">
+    <row r="302" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I302" s="8"/>
       <c r="J302" s="8"/>
     </row>
-    <row r="303">
+    <row r="303" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I303" s="8"/>
       <c r="J303" s="8"/>
     </row>
-    <row r="304">
+    <row r="304" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I304" s="8"/>
       <c r="J304" s="8"/>
     </row>
-    <row r="305">
+    <row r="305" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I305" s="8"/>
       <c r="J305" s="8"/>
     </row>
-    <row r="306">
+    <row r="306" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I306" s="8"/>
       <c r="J306" s="8"/>
     </row>
-    <row r="307">
+    <row r="307" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I307" s="8"/>
       <c r="J307" s="8"/>
     </row>
-    <row r="308">
+    <row r="308" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I308" s="8"/>
       <c r="J308" s="8"/>
     </row>
-    <row r="309">
+    <row r="309" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I309" s="8"/>
       <c r="J309" s="8"/>
     </row>
-    <row r="310">
+    <row r="310" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I310" s="8"/>
       <c r="J310" s="8"/>
     </row>
-    <row r="311">
+    <row r="311" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I311" s="8"/>
       <c r="J311" s="8"/>
     </row>
-    <row r="312">
+    <row r="312" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I312" s="8"/>
       <c r="J312" s="8"/>
     </row>
-    <row r="313">
+    <row r="313" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I313" s="8"/>
       <c r="J313" s="8"/>
     </row>
-    <row r="314">
+    <row r="314" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I314" s="8"/>
       <c r="J314" s="8"/>
     </row>
-    <row r="315">
+    <row r="315" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I315" s="8"/>
       <c r="J315" s="8"/>
     </row>
-    <row r="316">
+    <row r="316" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I316" s="8"/>
       <c r="J316" s="8"/>
     </row>
-    <row r="317">
+    <row r="317" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I317" s="8"/>
       <c r="J317" s="8"/>
     </row>
-    <row r="318">
+    <row r="318" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I318" s="8"/>
       <c r="J318" s="8"/>
     </row>
-    <row r="319">
+    <row r="319" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I319" s="8"/>
       <c r="J319" s="8"/>
     </row>
-    <row r="320">
+    <row r="320" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I320" s="8"/>
       <c r="J320" s="8"/>
     </row>
-    <row r="321">
+    <row r="321" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I321" s="8"/>
       <c r="J321" s="8"/>
     </row>
-    <row r="322">
+    <row r="322" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I322" s="8"/>
       <c r="J322" s="8"/>
     </row>
-    <row r="323">
+    <row r="323" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I323" s="8"/>
       <c r="J323" s="8"/>
     </row>
-    <row r="324">
+    <row r="324" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I324" s="8"/>
       <c r="J324" s="8"/>
     </row>
-    <row r="325">
+    <row r="325" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I325" s="8"/>
       <c r="J325" s="8"/>
     </row>
-    <row r="326">
+    <row r="326" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I326" s="8"/>
       <c r="J326" s="8"/>
     </row>
-    <row r="327">
+    <row r="327" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I327" s="8"/>
       <c r="J327" s="8"/>
     </row>
-    <row r="328">
+    <row r="328" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I328" s="8"/>
       <c r="J328" s="8"/>
     </row>
-    <row r="329">
+    <row r="329" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I329" s="8"/>
       <c r="J329" s="8"/>
     </row>
-    <row r="330">
+    <row r="330" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I330" s="8"/>
       <c r="J330" s="8"/>
     </row>
-    <row r="331">
+    <row r="331" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I331" s="8"/>
       <c r="J331" s="8"/>
     </row>
-    <row r="332">
+    <row r="332" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I332" s="8"/>
       <c r="J332" s="8"/>
     </row>
-    <row r="333">
+    <row r="333" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I333" s="8"/>
       <c r="J333" s="8"/>
     </row>
-    <row r="334">
+    <row r="334" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I334" s="8"/>
       <c r="J334" s="8"/>
     </row>
-    <row r="335">
+    <row r="335" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I335" s="8"/>
       <c r="J335" s="8"/>
     </row>
-    <row r="336">
+    <row r="336" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I336" s="8"/>
       <c r="J336" s="8"/>
     </row>
-    <row r="337">
+    <row r="337" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I337" s="8"/>
       <c r="J337" s="8"/>
     </row>
-    <row r="338">
+    <row r="338" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I338" s="8"/>
       <c r="J338" s="8"/>
     </row>
-    <row r="339">
+    <row r="339" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I339" s="8"/>
       <c r="J339" s="8"/>
     </row>
-    <row r="340">
+    <row r="340" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I340" s="8"/>
       <c r="J340" s="8"/>
     </row>
-    <row r="341">
+    <row r="341" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I341" s="8"/>
       <c r="J341" s="8"/>
     </row>
-    <row r="342">
+    <row r="342" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I342" s="8"/>
       <c r="J342" s="8"/>
     </row>
-    <row r="343">
+    <row r="343" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I343" s="8"/>
       <c r="J343" s="8"/>
     </row>
-    <row r="344">
+    <row r="344" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I344" s="8"/>
       <c r="J344" s="8"/>
     </row>
-    <row r="345">
+    <row r="345" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I345" s="8"/>
       <c r="J345" s="8"/>
     </row>
-    <row r="346">
+    <row r="346" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I346" s="8"/>
       <c r="J346" s="8"/>
     </row>
-    <row r="347">
+    <row r="347" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I347" s="8"/>
       <c r="J347" s="8"/>
     </row>
-    <row r="348">
+    <row r="348" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I348" s="8"/>
       <c r="J348" s="8"/>
     </row>
-    <row r="349">
+    <row r="349" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I349" s="8"/>
       <c r="J349" s="8"/>
     </row>
-    <row r="350">
+    <row r="350" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I350" s="8"/>
       <c r="J350" s="8"/>
     </row>
-    <row r="351">
+    <row r="351" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I351" s="8"/>
       <c r="J351" s="8"/>
     </row>
-    <row r="352">
+    <row r="352" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I352" s="8"/>
       <c r="J352" s="8"/>
     </row>
-    <row r="353">
+    <row r="353" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I353" s="8"/>
       <c r="J353" s="8"/>
     </row>
-    <row r="354">
+    <row r="354" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I354" s="8"/>
       <c r="J354" s="8"/>
     </row>
-    <row r="355">
+    <row r="355" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I355" s="8"/>
       <c r="J355" s="8"/>
     </row>
-    <row r="356">
+    <row r="356" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I356" s="8"/>
       <c r="J356" s="8"/>
     </row>
-    <row r="357">
+    <row r="357" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I357" s="8"/>
       <c r="J357" s="8"/>
     </row>
-    <row r="358">
+    <row r="358" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I358" s="8"/>
       <c r="J358" s="8"/>
     </row>
-    <row r="359">
+    <row r="359" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I359" s="8"/>
       <c r="J359" s="8"/>
     </row>
-    <row r="360">
+    <row r="360" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I360" s="8"/>
       <c r="J360" s="8"/>
     </row>
-    <row r="361">
+    <row r="361" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I361" s="8"/>
       <c r="J361" s="8"/>
     </row>
-    <row r="362">
+    <row r="362" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I362" s="8"/>
       <c r="J362" s="8"/>
     </row>
-    <row r="363">
+    <row r="363" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I363" s="8"/>
       <c r="J363" s="8"/>
     </row>
-    <row r="364">
+    <row r="364" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I364" s="8"/>
       <c r="J364" s="8"/>
     </row>
-    <row r="365">
+    <row r="365" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I365" s="8"/>
       <c r="J365" s="8"/>
     </row>
-    <row r="366">
+    <row r="366" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I366" s="8"/>
       <c r="J366" s="8"/>
     </row>
-    <row r="367">
+    <row r="367" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I367" s="8"/>
       <c r="J367" s="8"/>
     </row>
-    <row r="368">
+    <row r="368" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I368" s="8"/>
       <c r="J368" s="8"/>
     </row>
-    <row r="369">
+    <row r="369" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I369" s="8"/>
       <c r="J369" s="8"/>
     </row>
-    <row r="370">
+    <row r="370" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I370" s="8"/>
       <c r="J370" s="8"/>
     </row>
-    <row r="371">
+    <row r="371" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I371" s="8"/>
       <c r="J371" s="8"/>
     </row>
-    <row r="372">
+    <row r="372" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I372" s="8"/>
       <c r="J372" s="8"/>
     </row>
-    <row r="373">
+    <row r="373" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I373" s="8"/>
       <c r="J373" s="8"/>
     </row>
-    <row r="374">
+    <row r="374" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I374" s="8"/>
       <c r="J374" s="8"/>
     </row>
-    <row r="375">
+    <row r="375" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I375" s="8"/>
       <c r="J375" s="8"/>
     </row>
-    <row r="376">
+    <row r="376" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I376" s="8"/>
       <c r="J376" s="8"/>
     </row>
-    <row r="377">
+    <row r="377" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I377" s="8"/>
       <c r="J377" s="8"/>
     </row>
-    <row r="378">
+    <row r="378" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I378" s="8"/>
       <c r="J378" s="8"/>
     </row>
-    <row r="379">
+    <row r="379" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I379" s="8"/>
       <c r="J379" s="8"/>
     </row>
-    <row r="380">
+    <row r="380" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I380" s="8"/>
       <c r="J380" s="8"/>
     </row>
-    <row r="381">
+    <row r="381" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I381" s="8"/>
       <c r="J381" s="8"/>
     </row>
-    <row r="382">
+    <row r="382" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I382" s="8"/>
       <c r="J382" s="8"/>
     </row>
-    <row r="383">
+    <row r="383" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I383" s="8"/>
       <c r="J383" s="8"/>
     </row>
-    <row r="384">
+    <row r="384" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I384" s="8"/>
       <c r="J384" s="8"/>
     </row>
-    <row r="385">
+    <row r="385" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I385" s="8"/>
       <c r="J385" s="8"/>
     </row>
-    <row r="386">
+    <row r="386" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I386" s="8"/>
       <c r="J386" s="8"/>
     </row>
-    <row r="387">
+    <row r="387" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I387" s="8"/>
       <c r="J387" s="8"/>
     </row>
-    <row r="388">
+    <row r="388" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I388" s="8"/>
       <c r="J388" s="8"/>
     </row>
-    <row r="389">
+    <row r="389" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I389" s="8"/>
       <c r="J389" s="8"/>
     </row>
-    <row r="390">
+    <row r="390" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I390" s="8"/>
       <c r="J390" s="8"/>
     </row>
-    <row r="391">
+    <row r="391" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I391" s="8"/>
       <c r="J391" s="8"/>
     </row>
-    <row r="392">
+    <row r="392" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I392" s="8"/>
       <c r="J392" s="8"/>
     </row>
-    <row r="393">
+    <row r="393" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I393" s="8"/>
       <c r="J393" s="8"/>
     </row>
-    <row r="394">
+    <row r="394" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I394" s="8"/>
       <c r="J394" s="8"/>
     </row>
-    <row r="395">
+    <row r="395" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I395" s="8"/>
       <c r="J395" s="8"/>
     </row>
-    <row r="396">
+    <row r="396" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I396" s="8"/>
       <c r="J396" s="8"/>
     </row>
-    <row r="397">
+    <row r="397" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I397" s="8"/>
       <c r="J397" s="8"/>
     </row>
-    <row r="398">
+    <row r="398" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I398" s="8"/>
       <c r="J398" s="8"/>
     </row>
-    <row r="399">
+    <row r="399" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I399" s="8"/>
       <c r="J399" s="8"/>
     </row>
-    <row r="400">
+    <row r="400" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I400" s="8"/>
       <c r="J400" s="8"/>
     </row>
-    <row r="401">
+    <row r="401" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I401" s="8"/>
       <c r="J401" s="8"/>
     </row>
-    <row r="402">
+    <row r="402" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I402" s="8"/>
       <c r="J402" s="8"/>
     </row>
-    <row r="403">
+    <row r="403" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I403" s="8"/>
       <c r="J403" s="8"/>
     </row>
-    <row r="404">
+    <row r="404" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I404" s="8"/>
       <c r="J404" s="8"/>
     </row>
-    <row r="405">
+    <row r="405" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I405" s="8"/>
       <c r="J405" s="8"/>
     </row>
-    <row r="406">
+    <row r="406" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I406" s="8"/>
       <c r="J406" s="8"/>
     </row>
-    <row r="407">
+    <row r="407" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I407" s="8"/>
       <c r="J407" s="8"/>
     </row>
-    <row r="408">
+    <row r="408" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I408" s="8"/>
       <c r="J408" s="8"/>
     </row>
-    <row r="409">
+    <row r="409" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I409" s="8"/>
       <c r="J409" s="8"/>
     </row>
-    <row r="410">
+    <row r="410" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I410" s="8"/>
       <c r="J410" s="8"/>
     </row>
-    <row r="411">
+    <row r="411" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I411" s="8"/>
       <c r="J411" s="8"/>
     </row>
-    <row r="412">
+    <row r="412" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I412" s="8"/>
       <c r="J412" s="8"/>
     </row>
-    <row r="413">
+    <row r="413" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I413" s="8"/>
       <c r="J413" s="8"/>
     </row>
-    <row r="414">
+    <row r="414" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I414" s="8"/>
       <c r="J414" s="8"/>
     </row>
-    <row r="415">
+    <row r="415" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I415" s="8"/>
       <c r="J415" s="8"/>
     </row>
-    <row r="416">
+    <row r="416" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I416" s="8"/>
       <c r="J416" s="8"/>
     </row>
-    <row r="417">
+    <row r="417" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I417" s="8"/>
       <c r="J417" s="8"/>
     </row>
-    <row r="418">
+    <row r="418" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I418" s="8"/>
       <c r="J418" s="8"/>
     </row>
-    <row r="419">
+    <row r="419" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I419" s="8"/>
       <c r="J419" s="8"/>
     </row>
-    <row r="420">
+    <row r="420" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I420" s="8"/>
       <c r="J420" s="8"/>
     </row>
-    <row r="421">
+    <row r="421" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I421" s="8"/>
       <c r="J421" s="8"/>
     </row>
-    <row r="422">
+    <row r="422" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I422" s="8"/>
       <c r="J422" s="8"/>
     </row>
-    <row r="423">
+    <row r="423" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I423" s="8"/>
       <c r="J423" s="8"/>
     </row>
-    <row r="424">
+    <row r="424" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I424" s="8"/>
       <c r="J424" s="8"/>
     </row>
-    <row r="425">
+    <row r="425" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I425" s="8"/>
       <c r="J425" s="8"/>
     </row>
-    <row r="426">
+    <row r="426" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I426" s="8"/>
       <c r="J426" s="8"/>
     </row>
-    <row r="427">
+    <row r="427" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I427" s="8"/>
       <c r="J427" s="8"/>
     </row>
-    <row r="428">
+    <row r="428" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I428" s="8"/>
       <c r="J428" s="8"/>
     </row>
-    <row r="429">
+    <row r="429" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I429" s="8"/>
       <c r="J429" s="8"/>
     </row>
-    <row r="430">
+    <row r="430" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I430" s="8"/>
       <c r="J430" s="8"/>
     </row>
-    <row r="431">
+    <row r="431" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I431" s="8"/>
       <c r="J431" s="8"/>
     </row>
-    <row r="432">
+    <row r="432" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I432" s="8"/>
       <c r="J432" s="8"/>
     </row>
-    <row r="433">
+    <row r="433" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I433" s="8"/>
       <c r="J433" s="8"/>
     </row>
-    <row r="434">
+    <row r="434" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I434" s="8"/>
       <c r="J434" s="8"/>
     </row>
-    <row r="435">
+    <row r="435" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I435" s="8"/>
       <c r="J435" s="8"/>
     </row>
-    <row r="436">
+    <row r="436" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I436" s="8"/>
       <c r="J436" s="8"/>
     </row>
-    <row r="437">
+    <row r="437" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I437" s="8"/>
       <c r="J437" s="8"/>
     </row>
-    <row r="438">
+    <row r="438" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I438" s="8"/>
       <c r="J438" s="8"/>
     </row>
-    <row r="439">
+    <row r="439" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I439" s="8"/>
       <c r="J439" s="8"/>
     </row>
-    <row r="440">
+    <row r="440" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I440" s="8"/>
       <c r="J440" s="8"/>
     </row>
-    <row r="441">
+    <row r="441" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I441" s="8"/>
       <c r="J441" s="8"/>
     </row>
-    <row r="442">
+    <row r="442" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I442" s="8"/>
       <c r="J442" s="8"/>
     </row>
-    <row r="443">
+    <row r="443" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I443" s="8"/>
       <c r="J443" s="8"/>
     </row>
-    <row r="444">
+    <row r="444" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I444" s="8"/>
       <c r="J444" s="8"/>
     </row>
-    <row r="445">
+    <row r="445" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I445" s="8"/>
       <c r="J445" s="8"/>
     </row>
-    <row r="446">
+    <row r="446" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I446" s="8"/>
       <c r="J446" s="8"/>
     </row>
-    <row r="447">
+    <row r="447" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I447" s="8"/>
       <c r="J447" s="8"/>
     </row>
-    <row r="448">
+    <row r="448" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I448" s="8"/>
       <c r="J448" s="8"/>
     </row>
-    <row r="449">
+    <row r="449" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I449" s="8"/>
       <c r="J449" s="8"/>
     </row>
-    <row r="450">
+    <row r="450" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I450" s="8"/>
       <c r="J450" s="8"/>
     </row>
-    <row r="451">
+    <row r="451" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I451" s="8"/>
       <c r="J451" s="8"/>
     </row>
-    <row r="452">
+    <row r="452" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I452" s="8"/>
       <c r="J452" s="8"/>
     </row>
-    <row r="453">
+    <row r="453" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I453" s="8"/>
       <c r="J453" s="8"/>
     </row>
-    <row r="454">
+    <row r="454" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I454" s="8"/>
       <c r="J454" s="8"/>
     </row>
-    <row r="455">
+    <row r="455" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I455" s="8"/>
       <c r="J455" s="8"/>
     </row>
-    <row r="456">
+    <row r="456" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I456" s="8"/>
       <c r="J456" s="8"/>
     </row>
-    <row r="457">
+    <row r="457" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I457" s="8"/>
       <c r="J457" s="8"/>
     </row>
-    <row r="458">
+    <row r="458" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I458" s="8"/>
       <c r="J458" s="8"/>
     </row>
-    <row r="459">
+    <row r="459" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I459" s="8"/>
       <c r="J459" s="8"/>
     </row>
-    <row r="460">
+    <row r="460" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I460" s="8"/>
       <c r="J460" s="8"/>
     </row>
-    <row r="461">
+    <row r="461" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I461" s="8"/>
       <c r="J461" s="8"/>
     </row>
-    <row r="462">
+    <row r="462" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I462" s="8"/>
       <c r="J462" s="8"/>
     </row>
-    <row r="463">
+    <row r="463" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I463" s="8"/>
       <c r="J463" s="8"/>
     </row>
-    <row r="464">
+    <row r="464" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I464" s="8"/>
       <c r="J464" s="8"/>
     </row>
-    <row r="465">
+    <row r="465" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I465" s="8"/>
       <c r="J465" s="8"/>
     </row>
-    <row r="466">
+    <row r="466" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I466" s="8"/>
       <c r="J466" s="8"/>
     </row>
-    <row r="467">
+    <row r="467" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I467" s="8"/>
       <c r="J467" s="8"/>
     </row>
-    <row r="468">
+    <row r="468" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I468" s="8"/>
       <c r="J468" s="8"/>
     </row>
-    <row r="469">
+    <row r="469" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I469" s="8"/>
       <c r="J469" s="8"/>
     </row>
-    <row r="470">
+    <row r="470" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I470" s="8"/>
       <c r="J470" s="8"/>
     </row>
-    <row r="471">
+    <row r="471" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I471" s="8"/>
       <c r="J471" s="8"/>
     </row>
-    <row r="472">
+    <row r="472" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I472" s="8"/>
       <c r="J472" s="8"/>
     </row>
-    <row r="473">
+    <row r="473" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I473" s="8"/>
       <c r="J473" s="8"/>
     </row>
-    <row r="474">
+    <row r="474" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I474" s="8"/>
       <c r="J474" s="8"/>
     </row>
-    <row r="475">
+    <row r="475" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I475" s="8"/>
       <c r="J475" s="8"/>
     </row>
-    <row r="476">
+    <row r="476" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I476" s="8"/>
       <c r="J476" s="8"/>
     </row>
-    <row r="477">
+    <row r="477" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I477" s="8"/>
       <c r="J477" s="8"/>
     </row>
-    <row r="478">
+    <row r="478" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I478" s="8"/>
       <c r="J478" s="8"/>
     </row>
-    <row r="479">
+    <row r="479" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I479" s="8"/>
       <c r="J479" s="8"/>
     </row>
-    <row r="480">
+    <row r="480" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I480" s="8"/>
       <c r="J480" s="8"/>
     </row>
-    <row r="481">
+    <row r="481" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I481" s="8"/>
       <c r="J481" s="8"/>
     </row>
-    <row r="482">
+    <row r="482" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I482" s="8"/>
       <c r="J482" s="8"/>
     </row>
-    <row r="483">
+    <row r="483" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I483" s="8"/>
       <c r="J483" s="8"/>
     </row>
-    <row r="484">
+    <row r="484" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I484" s="8"/>
       <c r="J484" s="8"/>
     </row>
-    <row r="485">
+    <row r="485" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I485" s="8"/>
       <c r="J485" s="8"/>
     </row>
-    <row r="486">
+    <row r="486" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I486" s="8"/>
       <c r="J486" s="8"/>
     </row>
-    <row r="487">
+    <row r="487" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I487" s="8"/>
       <c r="J487" s="8"/>
     </row>
-    <row r="488">
+    <row r="488" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I488" s="8"/>
       <c r="J488" s="8"/>
     </row>
-    <row r="489">
+    <row r="489" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I489" s="8"/>
       <c r="J489" s="8"/>
     </row>
-    <row r="490">
+    <row r="490" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I490" s="8"/>
       <c r="J490" s="8"/>
     </row>
-    <row r="491">
+    <row r="491" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I491" s="8"/>
       <c r="J491" s="8"/>
     </row>
-    <row r="492">
+    <row r="492" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I492" s="8"/>
       <c r="J492" s="8"/>
     </row>
-    <row r="493">
+    <row r="493" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I493" s="8"/>
       <c r="J493" s="8"/>
     </row>
-    <row r="494">
+    <row r="494" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I494" s="8"/>
       <c r="J494" s="8"/>
     </row>
-    <row r="495">
+    <row r="495" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I495" s="8"/>
       <c r="J495" s="8"/>
     </row>
-    <row r="496">
+    <row r="496" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I496" s="8"/>
       <c r="J496" s="8"/>
     </row>
-    <row r="497">
+    <row r="497" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I497" s="8"/>
       <c r="J497" s="8"/>
     </row>
-    <row r="498">
+    <row r="498" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I498" s="8"/>
       <c r="J498" s="8"/>
     </row>
-    <row r="499">
+    <row r="499" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I499" s="8"/>
       <c r="J499" s="8"/>
     </row>
-    <row r="500">
+    <row r="500" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I500" s="8"/>
       <c r="J500" s="8"/>
     </row>
-    <row r="501">
+    <row r="501" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I501" s="8"/>
       <c r="J501" s="8"/>
     </row>
-    <row r="502">
+    <row r="502" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I502" s="8"/>
       <c r="J502" s="8"/>
     </row>
-    <row r="503">
+    <row r="503" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I503" s="8"/>
       <c r="J503" s="8"/>
     </row>
-    <row r="504">
+    <row r="504" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I504" s="8"/>
       <c r="J504" s="8"/>
     </row>
-    <row r="505">
+    <row r="505" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I505" s="8"/>
       <c r="J505" s="8"/>
     </row>
-    <row r="506">
+    <row r="506" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I506" s="8"/>
       <c r="J506" s="8"/>
     </row>
-    <row r="507">
+    <row r="507" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I507" s="8"/>
       <c r="J507" s="8"/>
     </row>
-    <row r="508">
+    <row r="508" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I508" s="8"/>
       <c r="J508" s="8"/>
     </row>
-    <row r="509">
+    <row r="509" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I509" s="8"/>
       <c r="J509" s="8"/>
     </row>
-    <row r="510">
+    <row r="510" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I510" s="8"/>
       <c r="J510" s="8"/>
     </row>
-    <row r="511">
+    <row r="511" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I511" s="8"/>
       <c r="J511" s="8"/>
     </row>
-    <row r="512">
+    <row r="512" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I512" s="8"/>
       <c r="J512" s="8"/>
     </row>
-    <row r="513">
+    <row r="513" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I513" s="8"/>
       <c r="J513" s="8"/>
     </row>
-    <row r="514">
+    <row r="514" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I514" s="8"/>
       <c r="J514" s="8"/>
     </row>
-    <row r="515">
+    <row r="515" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I515" s="8"/>
       <c r="J515" s="8"/>
     </row>
-    <row r="516">
+    <row r="516" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I516" s="8"/>
       <c r="J516" s="8"/>
     </row>
-    <row r="517">
+    <row r="517" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I517" s="8"/>
       <c r="J517" s="8"/>
     </row>
-    <row r="518">
+    <row r="518" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I518" s="8"/>
       <c r="J518" s="8"/>
     </row>
-    <row r="519">
+    <row r="519" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I519" s="8"/>
       <c r="J519" s="8"/>
     </row>
-    <row r="520">
+    <row r="520" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I520" s="8"/>
       <c r="J520" s="8"/>
     </row>
-    <row r="521">
+    <row r="521" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I521" s="8"/>
       <c r="J521" s="8"/>
     </row>
-    <row r="522">
+    <row r="522" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I522" s="8"/>
       <c r="J522" s="8"/>
     </row>
-    <row r="523">
+    <row r="523" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I523" s="8"/>
       <c r="J523" s="8"/>
     </row>
-    <row r="524">
+    <row r="524" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I524" s="8"/>
       <c r="J524" s="8"/>
     </row>
-    <row r="525">
+    <row r="525" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I525" s="8"/>
       <c r="J525" s="8"/>
     </row>
-    <row r="526">
+    <row r="526" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I526" s="8"/>
       <c r="J526" s="8"/>
     </row>
-    <row r="527">
+    <row r="527" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I527" s="8"/>
       <c r="J527" s="8"/>
     </row>
-    <row r="528">
+    <row r="528" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I528" s="8"/>
       <c r="J528" s="8"/>
     </row>
-    <row r="529">
+    <row r="529" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I529" s="8"/>
       <c r="J529" s="8"/>
     </row>
-    <row r="530">
+    <row r="530" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I530" s="8"/>
       <c r="J530" s="8"/>
     </row>
-    <row r="531">
+    <row r="531" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I531" s="8"/>
       <c r="J531" s="8"/>
     </row>
-    <row r="532">
+    <row r="532" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I532" s="8"/>
       <c r="J532" s="8"/>
     </row>
-    <row r="533">
+    <row r="533" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I533" s="8"/>
       <c r="J533" s="8"/>
     </row>
-    <row r="534">
+    <row r="534" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I534" s="8"/>
       <c r="J534" s="8"/>
     </row>
-    <row r="535">
+    <row r="535" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I535" s="8"/>
       <c r="J535" s="8"/>
     </row>
-    <row r="536">
+    <row r="536" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I536" s="8"/>
       <c r="J536" s="8"/>
     </row>
-    <row r="537">
+    <row r="537" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I537" s="8"/>
       <c r="J537" s="8"/>
     </row>
-    <row r="538">
+    <row r="538" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I538" s="8"/>
       <c r="J538" s="8"/>
     </row>
-    <row r="539">
+    <row r="539" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I539" s="8"/>
       <c r="J539" s="8"/>
     </row>
-    <row r="540">
+    <row r="540" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I540" s="8"/>
       <c r="J540" s="8"/>
     </row>
-    <row r="541">
+    <row r="541" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I541" s="8"/>
       <c r="J541" s="8"/>
     </row>
-    <row r="542">
+    <row r="542" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I542" s="8"/>
       <c r="J542" s="8"/>
     </row>
-    <row r="543">
+    <row r="543" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I543" s="8"/>
       <c r="J543" s="8"/>
     </row>
-    <row r="544">
+    <row r="544" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I544" s="8"/>
       <c r="J544" s="8"/>
     </row>
-    <row r="545">
+    <row r="545" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I545" s="8"/>
       <c r="J545" s="8"/>
     </row>
-    <row r="546">
+    <row r="546" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I546" s="8"/>
       <c r="J546" s="8"/>
     </row>
-    <row r="547">
+    <row r="547" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I547" s="8"/>
       <c r="J547" s="8"/>
     </row>
-    <row r="548">
+    <row r="548" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I548" s="8"/>
       <c r="J548" s="8"/>
     </row>
-    <row r="549">
+    <row r="549" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I549" s="8"/>
       <c r="J549" s="8"/>
     </row>
-    <row r="550">
+    <row r="550" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I550" s="8"/>
       <c r="J550" s="8"/>
     </row>
-    <row r="551">
+    <row r="551" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I551" s="8"/>
       <c r="J551" s="8"/>
     </row>
-    <row r="552">
+    <row r="552" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I552" s="8"/>
       <c r="J552" s="8"/>
     </row>
-    <row r="553">
+    <row r="553" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I553" s="8"/>
       <c r="J553" s="8"/>
     </row>
-    <row r="554">
+    <row r="554" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I554" s="8"/>
       <c r="J554" s="8"/>
     </row>
-    <row r="555">
+    <row r="555" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I555" s="8"/>
       <c r="J555" s="8"/>
     </row>
-    <row r="556">
+    <row r="556" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I556" s="8"/>
       <c r="J556" s="8"/>
     </row>
-    <row r="557">
+    <row r="557" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I557" s="8"/>
       <c r="J557" s="8"/>
     </row>
-    <row r="558">
+    <row r="558" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I558" s="8"/>
       <c r="J558" s="8"/>
     </row>
-    <row r="559">
+    <row r="559" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I559" s="8"/>
       <c r="J559" s="8"/>
     </row>
-    <row r="560">
+    <row r="560" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I560" s="8"/>
       <c r="J560" s="8"/>
     </row>
-    <row r="561">
+    <row r="561" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I561" s="8"/>
       <c r="J561" s="8"/>
     </row>
-    <row r="562">
+    <row r="562" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I562" s="8"/>
       <c r="J562" s="8"/>
     </row>
-    <row r="563">
+    <row r="563" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I563" s="8"/>
       <c r="J563" s="8"/>
     </row>
-    <row r="564">
+    <row r="564" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I564" s="8"/>
       <c r="J564" s="8"/>
     </row>
-    <row r="565">
+    <row r="565" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I565" s="8"/>
       <c r="J565" s="8"/>
     </row>
-    <row r="566">
+    <row r="566" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I566" s="8"/>
       <c r="J566" s="8"/>
     </row>
-    <row r="567">
+    <row r="567" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I567" s="8"/>
       <c r="J567" s="8"/>
     </row>
-    <row r="568">
+    <row r="568" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I568" s="8"/>
       <c r="J568" s="8"/>
     </row>
-    <row r="569">
+    <row r="569" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I569" s="8"/>
       <c r="J569" s="8"/>
     </row>
-    <row r="570">
+    <row r="570" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I570" s="8"/>
       <c r="J570" s="8"/>
     </row>
-    <row r="571">
+    <row r="571" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I571" s="8"/>
       <c r="J571" s="8"/>
     </row>
-    <row r="572">
+    <row r="572" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I572" s="8"/>
       <c r="J572" s="8"/>
     </row>
-    <row r="573">
+    <row r="573" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I573" s="8"/>
       <c r="J573" s="8"/>
     </row>
-    <row r="574">
+    <row r="574" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I574" s="8"/>
       <c r="J574" s="8"/>
     </row>
-    <row r="575">
+    <row r="575" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I575" s="8"/>
       <c r="J575" s="8"/>
     </row>
-    <row r="576">
+    <row r="576" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I576" s="8"/>
       <c r="J576" s="8"/>
     </row>
-    <row r="577">
+    <row r="577" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I577" s="8"/>
       <c r="J577" s="8"/>
     </row>
-    <row r="578">
+    <row r="578" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I578" s="8"/>
       <c r="J578" s="8"/>
     </row>
-    <row r="579">
+    <row r="579" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I579" s="8"/>
       <c r="J579" s="8"/>
     </row>
-    <row r="580">
+    <row r="580" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I580" s="8"/>
       <c r="J580" s="8"/>
     </row>
-    <row r="581">
+    <row r="581" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I581" s="8"/>
       <c r="J581" s="8"/>
     </row>
-    <row r="582">
+    <row r="582" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I582" s="8"/>
       <c r="J582" s="8"/>
     </row>
-    <row r="583">
+    <row r="583" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I583" s="8"/>
       <c r="J583" s="8"/>
     </row>
-    <row r="584">
+    <row r="584" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I584" s="8"/>
       <c r="J584" s="8"/>
     </row>
-    <row r="585">
+    <row r="585" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I585" s="8"/>
       <c r="J585" s="8"/>
     </row>
-    <row r="586">
+    <row r="586" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I586" s="8"/>
       <c r="J586" s="8"/>
     </row>
-    <row r="587">
+    <row r="587" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I587" s="8"/>
       <c r="J587" s="8"/>
     </row>
-    <row r="588">
+    <row r="588" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I588" s="8"/>
       <c r="J588" s="8"/>
     </row>
-    <row r="589">
+    <row r="589" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I589" s="8"/>
       <c r="J589" s="8"/>
     </row>
-    <row r="590">
+    <row r="590" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I590" s="8"/>
       <c r="J590" s="8"/>
     </row>
-    <row r="591">
+    <row r="591" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I591" s="8"/>
       <c r="J591" s="8"/>
     </row>
-    <row r="592">
+    <row r="592" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I592" s="8"/>
       <c r="J592" s="8"/>
     </row>
-    <row r="593">
+    <row r="593" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I593" s="8"/>
       <c r="J593" s="8"/>
     </row>
-    <row r="594">
+    <row r="594" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I594" s="8"/>
       <c r="J594" s="8"/>
     </row>
-    <row r="595">
+    <row r="595" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I595" s="8"/>
       <c r="J595" s="8"/>
     </row>
-    <row r="596">
+    <row r="596" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I596" s="8"/>
       <c r="J596" s="8"/>
     </row>
-    <row r="597">
+    <row r="597" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I597" s="8"/>
       <c r="J597" s="8"/>
     </row>
-    <row r="598">
+    <row r="598" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I598" s="8"/>
       <c r="J598" s="8"/>
     </row>
-    <row r="599">
+    <row r="599" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I599" s="8"/>
       <c r="J599" s="8"/>
     </row>
-    <row r="600">
+    <row r="600" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I600" s="8"/>
       <c r="J600" s="8"/>
     </row>
-    <row r="601">
+    <row r="601" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I601" s="8"/>
       <c r="J601" s="8"/>
     </row>
-    <row r="602">
+    <row r="602" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I602" s="8"/>
       <c r="J602" s="8"/>
     </row>
-    <row r="603">
+    <row r="603" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I603" s="8"/>
       <c r="J603" s="8"/>
     </row>
-    <row r="604">
+    <row r="604" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I604" s="8"/>
       <c r="J604" s="8"/>
     </row>
-    <row r="605">
+    <row r="605" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I605" s="8"/>
       <c r="J605" s="8"/>
     </row>
-    <row r="606">
+    <row r="606" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I606" s="8"/>
       <c r="J606" s="8"/>
     </row>
-    <row r="607">
+    <row r="607" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I607" s="8"/>
       <c r="J607" s="8"/>
     </row>
-    <row r="608">
+    <row r="608" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I608" s="8"/>
       <c r="J608" s="8"/>
     </row>
-    <row r="609">
+    <row r="609" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I609" s="8"/>
       <c r="J609" s="8"/>
     </row>
-    <row r="610">
+    <row r="610" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I610" s="8"/>
       <c r="J610" s="8"/>
     </row>
-    <row r="611">
+    <row r="611" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I611" s="8"/>
       <c r="J611" s="8"/>
     </row>
-    <row r="612">
+    <row r="612" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I612" s="8"/>
       <c r="J612" s="8"/>
     </row>
-    <row r="613">
+    <row r="613" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I613" s="8"/>
       <c r="J613" s="8"/>
     </row>
-    <row r="614">
+    <row r="614" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I614" s="8"/>
       <c r="J614" s="8"/>
     </row>
-    <row r="615">
+    <row r="615" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I615" s="8"/>
       <c r="J615" s="8"/>
     </row>
-    <row r="616">
+    <row r="616" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I616" s="8"/>
       <c r="J616" s="8"/>
     </row>
-    <row r="617">
+    <row r="617" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I617" s="8"/>
       <c r="J617" s="8"/>
     </row>
-    <row r="618">
+    <row r="618" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I618" s="8"/>
       <c r="J618" s="8"/>
     </row>
-    <row r="619">
+    <row r="619" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I619" s="8"/>
       <c r="J619" s="8"/>
     </row>
-    <row r="620">
+    <row r="620" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I620" s="8"/>
       <c r="J620" s="8"/>
     </row>
-    <row r="621">
+    <row r="621" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I621" s="8"/>
       <c r="J621" s="8"/>
     </row>
-    <row r="622">
+    <row r="622" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I622" s="8"/>
       <c r="J622" s="8"/>
     </row>
-    <row r="623">
+    <row r="623" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I623" s="8"/>
       <c r="J623" s="8"/>
     </row>
-    <row r="624">
+    <row r="624" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I624" s="8"/>
       <c r="J624" s="8"/>
     </row>
-    <row r="625">
+    <row r="625" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I625" s="8"/>
       <c r="J625" s="8"/>
     </row>
-    <row r="626">
+    <row r="626" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I626" s="8"/>
       <c r="J626" s="8"/>
     </row>
-    <row r="627">
+    <row r="627" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I627" s="8"/>
       <c r="J627" s="8"/>
     </row>
-    <row r="628">
+    <row r="628" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I628" s="8"/>
       <c r="J628" s="8"/>
     </row>
-    <row r="629">
+    <row r="629" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I629" s="8"/>
       <c r="J629" s="8"/>
     </row>
-    <row r="630">
+    <row r="630" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I630" s="8"/>
       <c r="J630" s="8"/>
     </row>
-    <row r="631">
+    <row r="631" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I631" s="8"/>
       <c r="J631" s="8"/>
     </row>
-    <row r="632">
+    <row r="632" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I632" s="8"/>
       <c r="J632" s="8"/>
     </row>
-    <row r="633">
+    <row r="633" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I633" s="8"/>
       <c r="J633" s="8"/>
     </row>
-    <row r="634">
+    <row r="634" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I634" s="8"/>
       <c r="J634" s="8"/>
     </row>
-    <row r="635">
+    <row r="635" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I635" s="8"/>
       <c r="J635" s="8"/>
     </row>
-    <row r="636">
+    <row r="636" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I636" s="8"/>
       <c r="J636" s="8"/>
     </row>
-    <row r="637">
+    <row r="637" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I637" s="8"/>
       <c r="J637" s="8"/>
     </row>
-    <row r="638">
+    <row r="638" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I638" s="8"/>
       <c r="J638" s="8"/>
     </row>
-    <row r="639">
+    <row r="639" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I639" s="8"/>
       <c r="J639" s="8"/>
     </row>
-    <row r="640">
+    <row r="640" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I640" s="8"/>
       <c r="J640" s="8"/>
     </row>
-    <row r="641">
+    <row r="641" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I641" s="8"/>
       <c r="J641" s="8"/>
     </row>
-    <row r="642">
+    <row r="642" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I642" s="8"/>
       <c r="J642" s="8"/>
     </row>
-    <row r="643">
+    <row r="643" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I643" s="8"/>
       <c r="J643" s="8"/>
     </row>
-    <row r="644">
+    <row r="644" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I644" s="8"/>
       <c r="J644" s="8"/>
     </row>
-    <row r="645">
+    <row r="645" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I645" s="8"/>
       <c r="J645" s="8"/>
     </row>
-    <row r="646">
+    <row r="646" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I646" s="8"/>
       <c r="J646" s="8"/>
     </row>
-    <row r="647">
+    <row r="647" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I647" s="8"/>
       <c r="J647" s="8"/>
     </row>
-    <row r="648">
+    <row r="648" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I648" s="8"/>
       <c r="J648" s="8"/>
     </row>
-    <row r="649">
+    <row r="649" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I649" s="8"/>
       <c r="J649" s="8"/>
     </row>
-    <row r="650">
+    <row r="650" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I650" s="8"/>
       <c r="J650" s="8"/>
     </row>
-    <row r="651">
+    <row r="651" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I651" s="8"/>
       <c r="J651" s="8"/>
     </row>
-    <row r="652">
+    <row r="652" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I652" s="8"/>
       <c r="J652" s="8"/>
     </row>
-    <row r="653">
+    <row r="653" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I653" s="8"/>
       <c r="J653" s="8"/>
     </row>
-    <row r="654">
+    <row r="654" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I654" s="8"/>
       <c r="J654" s="8"/>
     </row>
-    <row r="655">
+    <row r="655" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I655" s="8"/>
       <c r="J655" s="8"/>
     </row>
-    <row r="656">
+    <row r="656" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I656" s="8"/>
       <c r="J656" s="8"/>
     </row>
-    <row r="657">
+    <row r="657" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I657" s="8"/>
       <c r="J657" s="8"/>
     </row>
-    <row r="658">
+    <row r="658" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I658" s="8"/>
       <c r="J658" s="8"/>
     </row>
-    <row r="659">
+    <row r="659" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I659" s="8"/>
       <c r="J659" s="8"/>
     </row>
-    <row r="660">
+    <row r="660" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I660" s="8"/>
       <c r="J660" s="8"/>
     </row>
-    <row r="661">
+    <row r="661" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I661" s="8"/>
       <c r="J661" s="8"/>
     </row>
-    <row r="662">
+    <row r="662" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I662" s="8"/>
       <c r="J662" s="8"/>
     </row>
-    <row r="663">
+    <row r="663" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I663" s="8"/>
       <c r="J663" s="8"/>
     </row>
-    <row r="664">
+    <row r="664" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I664" s="8"/>
       <c r="J664" s="8"/>
     </row>
-    <row r="665">
+    <row r="665" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I665" s="8"/>
       <c r="J665" s="8"/>
     </row>
-    <row r="666">
+    <row r="666" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I666" s="8"/>
       <c r="J666" s="8"/>
     </row>
-    <row r="667">
+    <row r="667" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I667" s="8"/>
       <c r="J667" s="8"/>
     </row>
-    <row r="668">
+    <row r="668" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I668" s="8"/>
       <c r="J668" s="8"/>
     </row>
-    <row r="669">
+    <row r="669" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I669" s="8"/>
       <c r="J669" s="8"/>
     </row>
-    <row r="670">
+    <row r="670" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I670" s="8"/>
       <c r="J670" s="8"/>
     </row>
-    <row r="671">
+    <row r="671" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I671" s="8"/>
       <c r="J671" s="8"/>
     </row>
-    <row r="672">
+    <row r="672" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I672" s="8"/>
       <c r="J672" s="8"/>
     </row>
-    <row r="673">
+    <row r="673" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I673" s="8"/>
       <c r="J673" s="8"/>
     </row>
-    <row r="674">
+    <row r="674" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I674" s="8"/>
       <c r="J674" s="8"/>
     </row>
-    <row r="675">
+    <row r="675" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I675" s="8"/>
       <c r="J675" s="8"/>
     </row>
-    <row r="676">
+    <row r="676" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I676" s="8"/>
       <c r="J676" s="8"/>
     </row>
-    <row r="677">
+    <row r="677" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I677" s="8"/>
       <c r="J677" s="8"/>
     </row>
-    <row r="678">
+    <row r="678" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I678" s="8"/>
       <c r="J678" s="8"/>
     </row>
-    <row r="679">
+    <row r="679" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I679" s="8"/>
       <c r="J679" s="8"/>
     </row>
-    <row r="680">
+    <row r="680" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I680" s="8"/>
       <c r="J680" s="8"/>
     </row>
-    <row r="681">
+    <row r="681" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I681" s="8"/>
       <c r="J681" s="8"/>
     </row>
-    <row r="682">
+    <row r="682" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I682" s="8"/>
       <c r="J682" s="8"/>
     </row>
-    <row r="683">
+    <row r="683" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I683" s="8"/>
       <c r="J683" s="8"/>
     </row>
-    <row r="684">
+    <row r="684" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I684" s="8"/>
       <c r="J684" s="8"/>
     </row>
-    <row r="685">
+    <row r="685" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I685" s="8"/>
       <c r="J685" s="8"/>
     </row>
-    <row r="686">
+    <row r="686" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I686" s="8"/>
       <c r="J686" s="8"/>
     </row>
-    <row r="687">
+    <row r="687" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I687" s="8"/>
       <c r="J687" s="8"/>
     </row>
-    <row r="688">
+    <row r="688" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I688" s="8"/>
       <c r="J688" s="8"/>
     </row>
-    <row r="689">
+    <row r="689" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I689" s="8"/>
       <c r="J689" s="8"/>
     </row>
-    <row r="690">
+    <row r="690" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I690" s="8"/>
       <c r="J690" s="8"/>
     </row>
-    <row r="691">
+    <row r="691" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I691" s="8"/>
       <c r="J691" s="8"/>
     </row>
-    <row r="692">
+    <row r="692" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I692" s="8"/>
       <c r="J692" s="8"/>
     </row>
-    <row r="693">
+    <row r="693" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I693" s="8"/>
       <c r="J693" s="8"/>
     </row>
-    <row r="694">
+    <row r="694" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I694" s="8"/>
       <c r="J694" s="8"/>
     </row>
-    <row r="695">
+    <row r="695" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I695" s="8"/>
       <c r="J695" s="8"/>
     </row>
-    <row r="696">
+    <row r="696" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I696" s="8"/>
       <c r="J696" s="8"/>
     </row>
-    <row r="697">
+    <row r="697" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I697" s="8"/>
       <c r="J697" s="8"/>
     </row>
-    <row r="698">
+    <row r="698" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I698" s="8"/>
       <c r="J698" s="8"/>
     </row>
-    <row r="699">
+    <row r="699" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I699" s="8"/>
       <c r="J699" s="8"/>
     </row>
-    <row r="700">
+    <row r="700" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I700" s="8"/>
       <c r="J700" s="8"/>
     </row>
-    <row r="701">
+    <row r="701" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I701" s="8"/>
       <c r="J701" s="8"/>
     </row>
-    <row r="702">
+    <row r="702" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I702" s="8"/>
       <c r="J702" s="8"/>
     </row>
-    <row r="703">
+    <row r="703" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I703" s="8"/>
       <c r="J703" s="8"/>
     </row>
-    <row r="704">
+    <row r="704" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I704" s="8"/>
       <c r="J704" s="8"/>
     </row>
-    <row r="705">
+    <row r="705" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I705" s="8"/>
       <c r="J705" s="8"/>
     </row>
-    <row r="706">
+    <row r="706" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I706" s="8"/>
       <c r="J706" s="8"/>
     </row>
-    <row r="707">
+    <row r="707" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I707" s="8"/>
       <c r="J707" s="8"/>
     </row>
-    <row r="708">
+    <row r="708" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I708" s="8"/>
       <c r="J708" s="8"/>
     </row>
-    <row r="709">
+    <row r="709" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I709" s="8"/>
       <c r="J709" s="8"/>
     </row>
-    <row r="710">
+    <row r="710" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I710" s="8"/>
       <c r="J710" s="8"/>
     </row>
-    <row r="711">
+    <row r="711" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I711" s="8"/>
       <c r="J711" s="8"/>
     </row>
-    <row r="712">
+    <row r="712" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I712" s="8"/>
       <c r="J712" s="8"/>
     </row>
-    <row r="713">
+    <row r="713" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I713" s="8"/>
       <c r="J713" s="8"/>
     </row>
-    <row r="714">
+    <row r="714" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I714" s="8"/>
       <c r="J714" s="8"/>
     </row>
-    <row r="715">
+    <row r="715" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I715" s="8"/>
       <c r="J715" s="8"/>
     </row>
-    <row r="716">
+    <row r="716" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I716" s="8"/>
       <c r="J716" s="8"/>
     </row>
-    <row r="717">
+    <row r="717" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I717" s="8"/>
       <c r="J717" s="8"/>
     </row>
-    <row r="718">
+    <row r="718" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I718" s="8"/>
       <c r="J718" s="8"/>
     </row>
-    <row r="719">
+    <row r="719" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I719" s="8"/>
       <c r="J719" s="8"/>
     </row>
-    <row r="720">
+    <row r="720" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I720" s="8"/>
       <c r="J720" s="8"/>
     </row>
-    <row r="721">
+    <row r="721" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I721" s="8"/>
       <c r="J721" s="8"/>
     </row>
-    <row r="722">
+    <row r="722" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I722" s="8"/>
       <c r="J722" s="8"/>
     </row>
-    <row r="723">
+    <row r="723" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I723" s="8"/>
       <c r="J723" s="8"/>
     </row>
-    <row r="724">
+    <row r="724" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I724" s="8"/>
       <c r="J724" s="8"/>
     </row>
-    <row r="725">
+    <row r="725" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I725" s="8"/>
       <c r="J725" s="8"/>
     </row>
-    <row r="726">
+    <row r="726" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I726" s="8"/>
       <c r="J726" s="8"/>
     </row>
-    <row r="727">
+    <row r="727" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I727" s="8"/>
       <c r="J727" s="8"/>
     </row>
-    <row r="728">
+    <row r="728" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I728" s="8"/>
       <c r="J728" s="8"/>
     </row>
-    <row r="729">
+    <row r="729" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I729" s="8"/>
       <c r="J729" s="8"/>
     </row>
-    <row r="730">
+    <row r="730" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I730" s="8"/>
       <c r="J730" s="8"/>
     </row>
-    <row r="731">
+    <row r="731" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I731" s="8"/>
       <c r="J731" s="8"/>
     </row>
-    <row r="732">
+    <row r="732" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I732" s="8"/>
       <c r="J732" s="8"/>
     </row>
-    <row r="733">
+    <row r="733" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I733" s="8"/>
       <c r="J733" s="8"/>
     </row>
-    <row r="734">
+    <row r="734" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I734" s="8"/>
       <c r="J734" s="8"/>
     </row>
-    <row r="735">
+    <row r="735" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I735" s="8"/>
       <c r="J735" s="8"/>
     </row>
-    <row r="736">
+    <row r="736" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I736" s="8"/>
       <c r="J736" s="8"/>
     </row>
-    <row r="737">
+    <row r="737" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I737" s="8"/>
       <c r="J737" s="8"/>
     </row>
-    <row r="738">
+    <row r="738" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I738" s="8"/>
       <c r="J738" s="8"/>
     </row>
-    <row r="739">
+    <row r="739" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I739" s="8"/>
       <c r="J739" s="8"/>
     </row>
-    <row r="740">
+    <row r="740" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I740" s="8"/>
       <c r="J740" s="8"/>
     </row>
-    <row r="741">
+    <row r="741" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I741" s="8"/>
       <c r="J741" s="8"/>
     </row>
-    <row r="742">
+    <row r="742" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I742" s="8"/>
       <c r="J742" s="8"/>
     </row>
-    <row r="743">
+    <row r="743" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I743" s="8"/>
       <c r="J743" s="8"/>
     </row>
-    <row r="744">
+    <row r="744" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I744" s="8"/>
       <c r="J744" s="8"/>
     </row>
-    <row r="745">
+    <row r="745" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I745" s="8"/>
       <c r="J745" s="8"/>
     </row>
-    <row r="746">
+    <row r="746" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I746" s="8"/>
       <c r="J746" s="8"/>
     </row>
-    <row r="747">
+    <row r="747" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I747" s="8"/>
       <c r="J747" s="8"/>
     </row>
-    <row r="748">
+    <row r="748" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I748" s="8"/>
       <c r="J748" s="8"/>
     </row>
-    <row r="749">
+    <row r="749" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I749" s="8"/>
       <c r="J749" s="8"/>
     </row>
-    <row r="750">
+    <row r="750" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I750" s="8"/>
       <c r="J750" s="8"/>
     </row>
-    <row r="751">
+    <row r="751" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I751" s="8"/>
       <c r="J751" s="8"/>
     </row>
-    <row r="752">
+    <row r="752" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I752" s="8"/>
       <c r="J752" s="8"/>
     </row>
-    <row r="753">
+    <row r="753" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I753" s="8"/>
       <c r="J753" s="8"/>
     </row>
-    <row r="754">
+    <row r="754" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I754" s="8"/>
       <c r="J754" s="8"/>
     </row>
-    <row r="755">
+    <row r="755" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I755" s="8"/>
       <c r="J755" s="8"/>
     </row>
-    <row r="756">
+    <row r="756" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I756" s="8"/>
       <c r="J756" s="8"/>
     </row>
-    <row r="757">
+    <row r="757" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I757" s="8"/>
       <c r="J757" s="8"/>
     </row>
-    <row r="758">
+    <row r="758" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I758" s="8"/>
       <c r="J758" s="8"/>
     </row>
-    <row r="759">
+    <row r="759" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I759" s="8"/>
       <c r="J759" s="8"/>
     </row>
-    <row r="760">
+    <row r="760" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I760" s="8"/>
       <c r="J760" s="8"/>
     </row>
-    <row r="761">
+    <row r="761" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I761" s="8"/>
       <c r="J761" s="8"/>
     </row>
-    <row r="762">
+    <row r="762" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I762" s="8"/>
       <c r="J762" s="8"/>
     </row>
-    <row r="763">
+    <row r="763" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I763" s="8"/>
       <c r="J763" s="8"/>
     </row>
-    <row r="764">
+    <row r="764" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I764" s="8"/>
       <c r="J764" s="8"/>
     </row>
-    <row r="765">
+    <row r="765" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I765" s="8"/>
       <c r="J765" s="8"/>
     </row>
-    <row r="766">
+    <row r="766" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I766" s="8"/>
       <c r="J766" s="8"/>
     </row>
-    <row r="767">
+    <row r="767" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I767" s="8"/>
       <c r="J767" s="8"/>
     </row>
-    <row r="768">
+    <row r="768" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I768" s="8"/>
       <c r="J768" s="8"/>
     </row>
-    <row r="769">
+    <row r="769" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I769" s="8"/>
       <c r="J769" s="8"/>
     </row>
-    <row r="770">
+    <row r="770" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I770" s="8"/>
       <c r="J770" s="8"/>
     </row>
-    <row r="771">
+    <row r="771" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I771" s="8"/>
       <c r="J771" s="8"/>
     </row>
-    <row r="772">
+    <row r="772" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I772" s="8"/>
       <c r="J772" s="8"/>
     </row>
-    <row r="773">
+    <row r="773" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I773" s="8"/>
       <c r="J773" s="8"/>
     </row>
-    <row r="774">
+    <row r="774" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I774" s="8"/>
       <c r="J774" s="8"/>
     </row>
-    <row r="775">
+    <row r="775" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I775" s="8"/>
       <c r="J775" s="8"/>
     </row>
-    <row r="776">
+    <row r="776" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I776" s="8"/>
       <c r="J776" s="8"/>
     </row>
-    <row r="777">
+    <row r="777" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I777" s="8"/>
       <c r="J777" s="8"/>
     </row>
-    <row r="778">
+    <row r="778" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I778" s="8"/>
       <c r="J778" s="8"/>
     </row>
-    <row r="779">
+    <row r="779" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I779" s="8"/>
       <c r="J779" s="8"/>
     </row>
-    <row r="780">
+    <row r="780" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I780" s="8"/>
       <c r="J780" s="8"/>
     </row>
-    <row r="781">
+    <row r="781" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I781" s="8"/>
       <c r="J781" s="8"/>
     </row>
-    <row r="782">
+    <row r="782" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I782" s="8"/>
       <c r="J782" s="8"/>
     </row>
-    <row r="783">
+    <row r="783" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I783" s="8"/>
       <c r="J783" s="8"/>
     </row>
-    <row r="784">
+    <row r="784" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I784" s="8"/>
       <c r="J784" s="8"/>
     </row>
-    <row r="785">
+    <row r="785" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I785" s="8"/>
       <c r="J785" s="8"/>
     </row>
-    <row r="786">
+    <row r="786" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I786" s="8"/>
       <c r="J786" s="8"/>
     </row>
-    <row r="787">
+    <row r="787" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I787" s="8"/>
       <c r="J787" s="8"/>
     </row>
-    <row r="788">
+    <row r="788" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I788" s="8"/>
       <c r="J788" s="8"/>
     </row>
-    <row r="789">
+    <row r="789" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I789" s="8"/>
       <c r="J789" s="8"/>
     </row>
-    <row r="790">
+    <row r="790" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I790" s="8"/>
       <c r="J790" s="8"/>
     </row>
-    <row r="791">
+    <row r="791" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I791" s="8"/>
       <c r="J791" s="8"/>
     </row>
-    <row r="792">
+    <row r="792" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I792" s="8"/>
       <c r="J792" s="8"/>
     </row>
-    <row r="793">
+    <row r="793" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I793" s="8"/>
       <c r="J793" s="8"/>
     </row>
-    <row r="794">
+    <row r="794" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I794" s="8"/>
       <c r="J794" s="8"/>
     </row>
-    <row r="795">
+    <row r="795" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I795" s="8"/>
       <c r="J795" s="8"/>
     </row>
-    <row r="796">
+    <row r="796" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I796" s="8"/>
       <c r="J796" s="8"/>
     </row>
-    <row r="797">
+    <row r="797" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I797" s="8"/>
       <c r="J797" s="8"/>
     </row>
-    <row r="798">
+    <row r="798" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I798" s="8"/>
       <c r="J798" s="8"/>
     </row>
-    <row r="799">
+    <row r="799" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I799" s="8"/>
       <c r="J799" s="8"/>
     </row>
-    <row r="800">
+    <row r="800" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I800" s="8"/>
       <c r="J800" s="8"/>
     </row>
-    <row r="801">
+    <row r="801" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I801" s="8"/>
       <c r="J801" s="8"/>
     </row>
-    <row r="802">
+    <row r="802" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I802" s="8"/>
       <c r="J802" s="8"/>
     </row>
-    <row r="803">
+    <row r="803" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I803" s="8"/>
       <c r="J803" s="8"/>
     </row>
-    <row r="804">
+    <row r="804" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I804" s="8"/>
       <c r="J804" s="8"/>
     </row>
-    <row r="805">
+    <row r="805" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I805" s="8"/>
       <c r="J805" s="8"/>
     </row>
-    <row r="806">
+    <row r="806" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I806" s="8"/>
       <c r="J806" s="8"/>
     </row>
-    <row r="807">
+    <row r="807" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I807" s="8"/>
       <c r="J807" s="8"/>
     </row>
-    <row r="808">
+    <row r="808" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I808" s="8"/>
       <c r="J808" s="8"/>
     </row>
-    <row r="809">
+    <row r="809" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I809" s="8"/>
       <c r="J809" s="8"/>
     </row>
-    <row r="810">
+    <row r="810" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I810" s="8"/>
       <c r="J810" s="8"/>
     </row>
-    <row r="811">
+    <row r="811" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I811" s="8"/>
       <c r="J811" s="8"/>
     </row>
-    <row r="812">
+    <row r="812" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I812" s="8"/>
       <c r="J812" s="8"/>
     </row>
-    <row r="813">
+    <row r="813" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I813" s="8"/>
       <c r="J813" s="8"/>
     </row>
-    <row r="814">
+    <row r="814" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I814" s="8"/>
       <c r="J814" s="8"/>
     </row>
-    <row r="815">
+    <row r="815" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I815" s="8"/>
       <c r="J815" s="8"/>
     </row>
-    <row r="816">
+    <row r="816" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I816" s="8"/>
       <c r="J816" s="8"/>
     </row>
-    <row r="817">
+    <row r="817" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I817" s="8"/>
       <c r="J817" s="8"/>
     </row>
-    <row r="818">
+    <row r="818" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I818" s="8"/>
       <c r="J818" s="8"/>
     </row>
-    <row r="819">
+    <row r="819" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I819" s="8"/>
       <c r="J819" s="8"/>
     </row>
-    <row r="820">
+    <row r="820" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I820" s="8"/>
       <c r="J820" s="8"/>
     </row>
-    <row r="821">
+    <row r="821" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I821" s="8"/>
       <c r="J821" s="8"/>
     </row>
-    <row r="822">
+    <row r="822" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I822" s="8"/>
       <c r="J822" s="8"/>
     </row>
-    <row r="823">
+    <row r="823" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I823" s="8"/>
       <c r="J823" s="8"/>
     </row>
-    <row r="824">
+    <row r="824" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I824" s="8"/>
       <c r="J824" s="8"/>
     </row>
-    <row r="825">
+    <row r="825" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I825" s="8"/>
       <c r="J825" s="8"/>
     </row>
-    <row r="826">
+    <row r="826" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I826" s="8"/>
       <c r="J826" s="8"/>
     </row>
-    <row r="827">
+    <row r="827" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I827" s="8"/>
       <c r="J827" s="8"/>
     </row>
-    <row r="828">
+    <row r="828" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I828" s="8"/>
       <c r="J828" s="8"/>
     </row>
-    <row r="829">
+    <row r="829" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I829" s="8"/>
       <c r="J829" s="8"/>
     </row>
-    <row r="830">
+    <row r="830" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I830" s="8"/>
       <c r="J830" s="8"/>
     </row>
-    <row r="831">
+    <row r="831" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I831" s="8"/>
       <c r="J831" s="8"/>
     </row>
-    <row r="832">
+    <row r="832" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I832" s="8"/>
       <c r="J832" s="8"/>
     </row>
-    <row r="833">
+    <row r="833" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I833" s="8"/>
       <c r="J833" s="8"/>
     </row>
-    <row r="834">
+    <row r="834" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I834" s="8"/>
       <c r="J834" s="8"/>
     </row>
-    <row r="835">
+    <row r="835" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I835" s="8"/>
       <c r="J835" s="8"/>
     </row>
-    <row r="836">
+    <row r="836" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I836" s="8"/>
       <c r="J836" s="8"/>
     </row>
-    <row r="837">
+    <row r="837" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I837" s="8"/>
       <c r="J837" s="8"/>
     </row>
-    <row r="838">
+    <row r="838" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I838" s="8"/>
       <c r="J838" s="8"/>
     </row>
-    <row r="839">
+    <row r="839" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I839" s="8"/>
       <c r="J839" s="8"/>
     </row>
-    <row r="840">
+    <row r="840" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I840" s="8"/>
       <c r="J840" s="8"/>
     </row>
-    <row r="841">
+    <row r="841" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I841" s="8"/>
       <c r="J841" s="8"/>
     </row>
-    <row r="842">
+    <row r="842" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I842" s="8"/>
       <c r="J842" s="8"/>
     </row>
-    <row r="843">
+    <row r="843" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I843" s="8"/>
       <c r="J843" s="8"/>
     </row>
-    <row r="844">
+    <row r="844" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I844" s="8"/>
       <c r="J844" s="8"/>
     </row>
-    <row r="845">
+    <row r="845" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I845" s="8"/>
       <c r="J845" s="8"/>
     </row>
-    <row r="846">
+    <row r="846" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I846" s="8"/>
       <c r="J846" s="8"/>
     </row>
-    <row r="847">
+    <row r="847" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I847" s="8"/>
       <c r="J847" s="8"/>
     </row>
-    <row r="848">
+    <row r="848" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I848" s="8"/>
       <c r="J848" s="8"/>
     </row>
-    <row r="849">
+    <row r="849" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I849" s="8"/>
       <c r="J849" s="8"/>
     </row>
-    <row r="850">
+    <row r="850" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I850" s="8"/>
       <c r="J850" s="8"/>
     </row>
-    <row r="851">
+    <row r="851" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I851" s="8"/>
       <c r="J851" s="8"/>
     </row>
-    <row r="852">
+    <row r="852" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I852" s="8"/>
       <c r="J852" s="8"/>
     </row>
-    <row r="853">
+    <row r="853" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I853" s="8"/>
       <c r="J853" s="8"/>
     </row>
-    <row r="854">
+    <row r="854" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I854" s="8"/>
       <c r="J854" s="8"/>
     </row>
-    <row r="855">
+    <row r="855" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I855" s="8"/>
       <c r="J855" s="8"/>
     </row>
-    <row r="856">
+    <row r="856" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I856" s="8"/>
       <c r="J856" s="8"/>
     </row>
-    <row r="857">
+    <row r="857" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I857" s="8"/>
       <c r="J857" s="8"/>
     </row>
-    <row r="858">
+    <row r="858" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I858" s="8"/>
       <c r="J858" s="8"/>
     </row>
-    <row r="859">
+    <row r="859" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I859" s="8"/>
       <c r="J859" s="8"/>
     </row>
-    <row r="860">
+    <row r="860" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I860" s="8"/>
       <c r="J860" s="8"/>
     </row>
-    <row r="861">
+    <row r="861" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I861" s="8"/>
       <c r="J861" s="8"/>
     </row>
-    <row r="862">
+    <row r="862" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I862" s="8"/>
       <c r="J862" s="8"/>
     </row>
-    <row r="863">
+    <row r="863" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I863" s="8"/>
       <c r="J863" s="8"/>
     </row>
-    <row r="864">
+    <row r="864" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I864" s="8"/>
       <c r="J864" s="8"/>
     </row>
-    <row r="865">
+    <row r="865" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I865" s="8"/>
       <c r="J865" s="8"/>
     </row>
-    <row r="866">
+    <row r="866" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I866" s="8"/>
       <c r="J866" s="8"/>
     </row>
-    <row r="867">
+    <row r="867" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I867" s="8"/>
       <c r="J867" s="8"/>
     </row>
-    <row r="868">
+    <row r="868" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I868" s="8"/>
       <c r="J868" s="8"/>
     </row>
-    <row r="869">
+    <row r="869" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I869" s="8"/>
       <c r="J869" s="8"/>
     </row>
-    <row r="870">
+    <row r="870" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I870" s="8"/>
       <c r="J870" s="8"/>
     </row>
-    <row r="871">
+    <row r="871" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I871" s="8"/>
       <c r="J871" s="8"/>
     </row>
-    <row r="872">
+    <row r="872" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I872" s="8"/>
       <c r="J872" s="8"/>
     </row>
-    <row r="873">
+    <row r="873" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I873" s="8"/>
       <c r="J873" s="8"/>
     </row>
-    <row r="874">
+    <row r="874" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I874" s="8"/>
       <c r="J874" s="8"/>
     </row>
-    <row r="875">
+    <row r="875" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I875" s="8"/>
       <c r="J875" s="8"/>
     </row>
-    <row r="876">
+    <row r="876" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I876" s="8"/>
       <c r="J876" s="8"/>
     </row>
-    <row r="877">
+    <row r="877" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I877" s="8"/>
       <c r="J877" s="8"/>
     </row>
-    <row r="878">
+    <row r="878" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I878" s="8"/>
       <c r="J878" s="8"/>
     </row>
-    <row r="879">
+    <row r="879" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I879" s="8"/>
       <c r="J879" s="8"/>
     </row>
-    <row r="880">
+    <row r="880" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I880" s="8"/>
       <c r="J880" s="8"/>
     </row>
-    <row r="881">
+    <row r="881" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I881" s="8"/>
       <c r="J881" s="8"/>
     </row>
-    <row r="882">
+    <row r="882" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I882" s="8"/>
       <c r="J882" s="8"/>
     </row>
-    <row r="883">
+    <row r="883" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I883" s="8"/>
       <c r="J883" s="8"/>
     </row>
-    <row r="884">
+    <row r="884" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I884" s="8"/>
       <c r="J884" s="8"/>
     </row>
-    <row r="885">
+    <row r="885" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I885" s="8"/>
       <c r="J885" s="8"/>
     </row>
-    <row r="886">
+    <row r="886" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I886" s="8"/>
       <c r="J886" s="8"/>
     </row>
-    <row r="887">
+    <row r="887" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I887" s="8"/>
       <c r="J887" s="8"/>
     </row>
-    <row r="888">
+    <row r="888" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I888" s="8"/>
       <c r="J888" s="8"/>
     </row>
-    <row r="889">
+    <row r="889" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I889" s="8"/>
       <c r="J889" s="8"/>
     </row>
-    <row r="890">
+    <row r="890" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I890" s="8"/>
       <c r="J890" s="8"/>
     </row>
-    <row r="891">
+    <row r="891" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I891" s="8"/>
       <c r="J891" s="8"/>
     </row>
-    <row r="892">
+    <row r="892" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I892" s="8"/>
       <c r="J892" s="8"/>
     </row>
-    <row r="893">
+    <row r="893" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I893" s="8"/>
       <c r="J893" s="8"/>
     </row>
-    <row r="894">
+    <row r="894" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I894" s="8"/>
       <c r="J894" s="8"/>
     </row>
-    <row r="895">
+    <row r="895" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I895" s="8"/>
       <c r="J895" s="8"/>
     </row>
-    <row r="896">
+    <row r="896" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I896" s="8"/>
       <c r="J896" s="8"/>
     </row>
-    <row r="897">
+    <row r="897" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I897" s="8"/>
       <c r="J897" s="8"/>
     </row>
-    <row r="898">
+    <row r="898" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I898" s="8"/>
       <c r="J898" s="8"/>
     </row>
-    <row r="899">
+    <row r="899" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I899" s="8"/>
       <c r="J899" s="8"/>
     </row>
-    <row r="900">
+    <row r="900" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I900" s="8"/>
       <c r="J900" s="8"/>
     </row>
-    <row r="901">
+    <row r="901" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I901" s="8"/>
       <c r="J901" s="8"/>
     </row>
-    <row r="902">
+    <row r="902" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I902" s="8"/>
       <c r="J902" s="8"/>
     </row>
-    <row r="903">
+    <row r="903" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I903" s="8"/>
       <c r="J903" s="8"/>
     </row>
-    <row r="904">
+    <row r="904" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I904" s="8"/>
       <c r="J904" s="8"/>
     </row>
-    <row r="905">
+    <row r="905" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I905" s="8"/>
       <c r="J905" s="8"/>
     </row>
-    <row r="906">
+    <row r="906" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I906" s="8"/>
       <c r="J906" s="8"/>
     </row>
-    <row r="907">
+    <row r="907" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I907" s="8"/>
       <c r="J907" s="8"/>
     </row>
-    <row r="908">
+    <row r="908" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I908" s="8"/>
       <c r="J908" s="8"/>
     </row>
-    <row r="909">
+    <row r="909" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I909" s="8"/>
       <c r="J909" s="8"/>
     </row>
-    <row r="910">
+    <row r="910" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I910" s="8"/>
       <c r="J910" s="8"/>
     </row>
-    <row r="911">
+    <row r="911" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I911" s="8"/>
       <c r="J911" s="8"/>
     </row>
-    <row r="912">
+    <row r="912" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I912" s="8"/>
       <c r="J912" s="8"/>
     </row>
-    <row r="913">
+    <row r="913" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I913" s="8"/>
       <c r="J913" s="8"/>
     </row>
-    <row r="914">
+    <row r="914" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I914" s="8"/>
       <c r="J914" s="8"/>
     </row>
-    <row r="915">
+    <row r="915" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I915" s="8"/>
       <c r="J915" s="8"/>
     </row>
-    <row r="916">
+    <row r="916" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I916" s="8"/>
       <c r="J916" s="8"/>
     </row>
-    <row r="917">
+    <row r="917" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I917" s="8"/>
       <c r="J917" s="8"/>
     </row>
-    <row r="918">
+    <row r="918" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I918" s="8"/>
       <c r="J918" s="8"/>
     </row>
-    <row r="919">
+    <row r="919" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I919" s="8"/>
       <c r="J919" s="8"/>
     </row>
-    <row r="920">
+    <row r="920" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I920" s="8"/>
       <c r="J920" s="8"/>
     </row>
-    <row r="921">
+    <row r="921" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I921" s="8"/>
       <c r="J921" s="8"/>
     </row>
-    <row r="922">
+    <row r="922" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I922" s="8"/>
       <c r="J922" s="8"/>
     </row>
-    <row r="923">
+    <row r="923" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I923" s="8"/>
       <c r="J923" s="8"/>
     </row>
-    <row r="924">
+    <row r="924" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I924" s="8"/>
       <c r="J924" s="8"/>
     </row>
-    <row r="925">
+    <row r="925" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I925" s="8"/>
       <c r="J925" s="8"/>
     </row>
-    <row r="926">
+    <row r="926" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I926" s="8"/>
       <c r="J926" s="8"/>
     </row>
-    <row r="927">
+    <row r="927" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I927" s="8"/>
       <c r="J927" s="8"/>
     </row>
-    <row r="928">
+    <row r="928" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I928" s="8"/>
       <c r="J928" s="8"/>
     </row>
-    <row r="929">
+    <row r="929" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I929" s="8"/>
       <c r="J929" s="8"/>
     </row>
-    <row r="930">
+    <row r="930" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I930" s="8"/>
       <c r="J930" s="8"/>
     </row>
-    <row r="931">
+    <row r="931" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I931" s="8"/>
       <c r="J931" s="8"/>
     </row>
-    <row r="932">
+    <row r="932" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I932" s="8"/>
       <c r="J932" s="8"/>
     </row>
-    <row r="933">
+    <row r="933" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I933" s="8"/>
       <c r="J933" s="8"/>
     </row>
-    <row r="934">
+    <row r="934" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I934" s="8"/>
       <c r="J934" s="8"/>
     </row>
-    <row r="935">
+    <row r="935" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I935" s="8"/>
       <c r="J935" s="8"/>
     </row>
-    <row r="936">
+    <row r="936" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I936" s="8"/>
       <c r="J936" s="8"/>
     </row>
-    <row r="937">
+    <row r="937" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I937" s="8"/>
       <c r="J937" s="8"/>
     </row>
-    <row r="938">
+    <row r="938" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I938" s="8"/>
       <c r="J938" s="8"/>
     </row>
-    <row r="939">
+    <row r="939" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I939" s="8"/>
       <c r="J939" s="8"/>
     </row>
-    <row r="940">
+    <row r="940" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I940" s="8"/>
       <c r="J940" s="8"/>
     </row>
-    <row r="941">
+    <row r="941" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I941" s="8"/>
       <c r="J941" s="8"/>
     </row>
-    <row r="942">
+    <row r="942" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I942" s="8"/>
       <c r="J942" s="8"/>
     </row>
-    <row r="943">
+    <row r="943" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I943" s="8"/>
       <c r="J943" s="8"/>
     </row>
-    <row r="944">
+    <row r="944" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I944" s="8"/>
       <c r="J944" s="8"/>
     </row>
-    <row r="945">
+    <row r="945" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I945" s="8"/>
       <c r="J945" s="8"/>
     </row>
-    <row r="946">
+    <row r="946" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I946" s="8"/>
       <c r="J946" s="8"/>
     </row>
-    <row r="947">
+    <row r="947" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I947" s="8"/>
       <c r="J947" s="8"/>
     </row>
-    <row r="948">
+    <row r="948" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I948" s="8"/>
       <c r="J948" s="8"/>
     </row>
-    <row r="949">
+    <row r="949" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I949" s="8"/>
       <c r="J949" s="8"/>
     </row>
-    <row r="950">
+    <row r="950" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I950" s="8"/>
       <c r="J950" s="8"/>
     </row>
-    <row r="951">
+    <row r="951" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I951" s="8"/>
       <c r="J951" s="8"/>
     </row>
-    <row r="952">
+    <row r="952" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I952" s="8"/>
       <c r="J952" s="8"/>
     </row>
-    <row r="953">
+    <row r="953" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I953" s="8"/>
       <c r="J953" s="8"/>
     </row>
-    <row r="954">
+    <row r="954" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I954" s="8"/>
       <c r="J954" s="8"/>
     </row>
-    <row r="955">
+    <row r="955" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I955" s="8"/>
       <c r="J955" s="8"/>
     </row>
-    <row r="956">
+    <row r="956" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I956" s="8"/>
       <c r="J956" s="8"/>
     </row>
-    <row r="957">
+    <row r="957" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I957" s="8"/>
       <c r="J957" s="8"/>
     </row>
-    <row r="958">
+    <row r="958" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I958" s="8"/>
       <c r="J958" s="8"/>
     </row>
-    <row r="959">
+    <row r="959" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I959" s="8"/>
       <c r="J959" s="8"/>
     </row>
-    <row r="960">
+    <row r="960" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I960" s="8"/>
       <c r="J960" s="8"/>
     </row>
-    <row r="961">
+    <row r="961" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I961" s="8"/>
       <c r="J961" s="8"/>
     </row>
-    <row r="962">
+    <row r="962" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I962" s="8"/>
       <c r="J962" s="8"/>
     </row>
-    <row r="963">
+    <row r="963" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I963" s="8"/>
       <c r="J963" s="8"/>
     </row>
-    <row r="964">
+    <row r="964" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I964" s="8"/>
       <c r="J964" s="8"/>
     </row>
-    <row r="965">
+    <row r="965" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I965" s="8"/>
       <c r="J965" s="8"/>
     </row>
-    <row r="966">
+    <row r="966" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I966" s="8"/>
       <c r="J966" s="8"/>
     </row>
-    <row r="967">
+    <row r="967" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I967" s="8"/>
       <c r="J967" s="8"/>
     </row>
-    <row r="968">
+    <row r="968" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I968" s="8"/>
       <c r="J968" s="8"/>
     </row>
-    <row r="969">
+    <row r="969" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I969" s="8"/>
       <c r="J969" s="8"/>
     </row>
-    <row r="970">
+    <row r="970" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I970" s="8"/>
       <c r="J970" s="8"/>
     </row>
-    <row r="971">
+    <row r="971" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I971" s="8"/>
       <c r="J971" s="8"/>
     </row>
-    <row r="972">
+    <row r="972" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I972" s="8"/>
       <c r="J972" s="8"/>
     </row>
-    <row r="973">
+    <row r="973" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I973" s="8"/>
       <c r="J973" s="8"/>
     </row>
-    <row r="974">
+    <row r="974" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I974" s="8"/>
       <c r="J974" s="8"/>
     </row>
-    <row r="975">
+    <row r="975" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I975" s="8"/>
       <c r="J975" s="8"/>
     </row>
-    <row r="976">
+    <row r="976" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I976" s="8"/>
       <c r="J976" s="8"/>
     </row>
-    <row r="977">
+    <row r="977" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I977" s="8"/>
       <c r="J977" s="8"/>
     </row>
-    <row r="978">
+    <row r="978" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I978" s="8"/>
       <c r="J978" s="8"/>
     </row>
-    <row r="979">
+    <row r="979" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I979" s="8"/>
       <c r="J979" s="8"/>
     </row>
-    <row r="980">
+    <row r="980" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I980" s="8"/>
       <c r="J980" s="8"/>
     </row>
-    <row r="981">
+    <row r="981" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I981" s="8"/>
       <c r="J981" s="8"/>
     </row>
-    <row r="982">
+    <row r="982" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I982" s="8"/>
       <c r="J982" s="8"/>
     </row>
-    <row r="983">
+    <row r="983" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I983" s="8"/>
       <c r="J983" s="8"/>
     </row>
-    <row r="984">
+    <row r="984" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I984" s="8"/>
       <c r="J984" s="8"/>
     </row>
-    <row r="985">
+    <row r="985" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I985" s="8"/>
       <c r="J985" s="8"/>
     </row>
-    <row r="986">
+    <row r="986" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I986" s="8"/>
       <c r="J986" s="8"/>
     </row>
-    <row r="987">
+    <row r="987" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I987" s="8"/>
       <c r="J987" s="8"/>
     </row>
-    <row r="988">
+    <row r="988" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I988" s="8"/>
       <c r="J988" s="8"/>
     </row>
-    <row r="989">
+    <row r="989" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I989" s="8"/>
       <c r="J989" s="8"/>
     </row>
-    <row r="990">
+    <row r="990" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I990" s="8"/>
       <c r="J990" s="8"/>
     </row>
-    <row r="991">
+    <row r="991" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I991" s="8"/>
       <c r="J991" s="8"/>
     </row>
-    <row r="992">
+    <row r="992" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I992" s="8"/>
       <c r="J992" s="8"/>
     </row>
-    <row r="993">
+    <row r="993" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I993" s="8"/>
       <c r="J993" s="8"/>
     </row>
-    <row r="994">
+    <row r="994" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I994" s="8"/>
       <c r="J994" s="8"/>
     </row>
-    <row r="995">
+    <row r="995" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I995" s="8"/>
       <c r="J995" s="8"/>
     </row>
-    <row r="996">
+    <row r="996" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I996" s="8"/>
       <c r="J996" s="8"/>
     </row>
-    <row r="997">
+    <row r="997" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I997" s="8"/>
       <c r="J997" s="8"/>
     </row>
-    <row r="998">
+    <row r="998" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I998" s="8"/>
       <c r="J998" s="8"/>
     </row>
-    <row r="999">
+    <row r="999" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I999" s="8"/>
       <c r="J999" s="8"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I1000" s="8"/>
       <c r="J1000" s="8"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="9:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="I1001" s="8"/>
       <c r="J1001" s="8"/>
     </row>
@@ -6153,45 +6466,45 @@
     <mergeCell ref="O3:P4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="K2"/>
-    <hyperlink r:id="rId2" ref="K3"/>
-    <hyperlink r:id="rId3" ref="K4"/>
-    <hyperlink r:id="rId4" ref="K5"/>
-    <hyperlink r:id="rId5" ref="K6"/>
-    <hyperlink r:id="rId6" ref="K7"/>
-    <hyperlink r:id="rId7" ref="K8"/>
-    <hyperlink r:id="rId8" ref="K9"/>
-    <hyperlink r:id="rId9" ref="K10"/>
-    <hyperlink r:id="rId10" ref="K11"/>
-    <hyperlink r:id="rId11" ref="K12"/>
-    <hyperlink r:id="rId12" ref="K13"/>
-    <hyperlink r:id="rId13" ref="K14"/>
-    <hyperlink r:id="rId14" ref="K15"/>
-    <hyperlink r:id="rId15" ref="K16"/>
-    <hyperlink r:id="rId16" ref="K17"/>
-    <hyperlink r:id="rId17" ref="K18"/>
-    <hyperlink r:id="rId18" ref="K19"/>
-    <hyperlink r:id="rId19" ref="K20"/>
-    <hyperlink r:id="rId20" ref="K21"/>
-    <hyperlink r:id="rId21" ref="K22"/>
-    <hyperlink r:id="rId22" ref="K23"/>
-    <hyperlink r:id="rId23" ref="K24"/>
-    <hyperlink r:id="rId24" ref="K25"/>
-    <hyperlink r:id="rId25" ref="K26"/>
-    <hyperlink r:id="rId26" ref="K27"/>
-    <hyperlink r:id="rId27" ref="K28"/>
-    <hyperlink r:id="rId28" ref="K29"/>
-    <hyperlink r:id="rId29" ref="K30"/>
-    <hyperlink r:id="rId30" ref="K31"/>
-    <hyperlink r:id="rId31" ref="K32"/>
-    <hyperlink r:id="rId32" ref="K33"/>
-    <hyperlink r:id="rId33" ref="K34"/>
-    <hyperlink r:id="rId34" ref="K35"/>
-    <hyperlink r:id="rId35" ref="K36"/>
-    <hyperlink r:id="rId36" ref="K37"/>
-    <hyperlink r:id="rId37" ref="K38"/>
-    <hyperlink r:id="rId38" ref="K39"/>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="K6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="K8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="K10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="K12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="K13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="K14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="K16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="K18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="K20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="K22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="K24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="K26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="K28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="K30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="K32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="K34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="K35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="K36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="K38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
   </hyperlinks>
-  <drawing r:id="rId39"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>